--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzybo\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C04472-E9FF-433E-B2EA-3202DEA69008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A4445-7533-45CF-8CDC-307090C24733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45525" yWindow="2910" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="3675" windowWidth="30315" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="11" r:id="rId1"/>
@@ -1727,7 +1727,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2196,6 +2196,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2605,9 +2606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65FF938-C862-403D-BD63-A154190737E6}">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="R1" s="143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1" s="143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1" s="143">
         <v>0</v>
@@ -2720,7 +2721,7 @@
       </c>
       <c r="AG1" s="17">
         <f>SUM(E1:AF1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="39" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2776,10 +2777,10 @@
         <v>45747</v>
       </c>
       <c r="R2" s="71">
-        <v>45635</v>
+        <v>45754</v>
       </c>
       <c r="S2" s="71">
-        <v>45642</v>
+        <v>45761</v>
       </c>
       <c r="T2" s="71">
         <v>45649</v>
@@ -2858,7 +2859,9 @@
       <c r="Q3" s="165">
         <v>1</v>
       </c>
-      <c r="R3" s="165"/>
+      <c r="R3" s="165">
+        <v>1</v>
+      </c>
       <c r="S3" s="165"/>
       <c r="T3" s="166"/>
       <c r="U3" s="150">
@@ -2937,7 +2940,9 @@
       <c r="Q4" s="167">
         <v>1</v>
       </c>
-      <c r="R4" s="167"/>
+      <c r="R4" s="167">
+        <v>1</v>
+      </c>
       <c r="S4" s="167"/>
       <c r="T4" s="168"/>
       <c r="U4" s="141">
@@ -2964,7 +2969,7 @@
       <c r="AF4" s="131"/>
       <c r="AG4" s="114">
         <f t="shared" ref="AG4:AG28" si="0">SUM(100*SUM(E4:T4),U4:AF4)/$AG$1</f>
-        <v>64.705882352941174</v>
+        <v>63.157894736842103</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3017,7 +3022,9 @@
       <c r="Q5" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R5" s="167"/>
+      <c r="R5" s="167">
+        <v>1</v>
+      </c>
       <c r="S5" s="167"/>
       <c r="T5" s="168"/>
       <c r="U5" s="141">
@@ -3044,7 +3051,7 @@
       <c r="AF5" s="131"/>
       <c r="AG5" s="114">
         <f t="shared" si="0"/>
-        <v>20.588235294117649</v>
+        <v>23.684210526315791</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3097,7 +3104,9 @@
       <c r="Q6" s="167">
         <v>1</v>
       </c>
-      <c r="R6" s="167"/>
+      <c r="R6" s="167">
+        <v>1</v>
+      </c>
       <c r="S6" s="167"/>
       <c r="T6" s="168"/>
       <c r="U6" s="151">
@@ -3125,7 +3134,7 @@
       <c r="AF6" s="131"/>
       <c r="AG6" s="114">
         <f t="shared" si="0"/>
-        <v>66.470588235294116</v>
+        <v>64.736842105263165</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3176,7 +3185,9 @@
       <c r="Q7" s="167">
         <v>1</v>
       </c>
-      <c r="R7" s="167"/>
+      <c r="R7" s="167">
+        <v>1</v>
+      </c>
       <c r="S7" s="167"/>
       <c r="T7" s="168"/>
       <c r="U7" s="151">
@@ -3204,7 +3215,7 @@
       <c r="AF7" s="131"/>
       <c r="AG7" s="114">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41.05263157894737</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3257,7 +3268,9 @@
       <c r="Q8" s="170">
         <v>1</v>
       </c>
-      <c r="R8" s="170"/>
+      <c r="R8" s="170">
+        <v>1</v>
+      </c>
       <c r="S8" s="170"/>
       <c r="T8" s="171"/>
       <c r="U8" s="141">
@@ -3283,7 +3296,7 @@
       <c r="AF8" s="134"/>
       <c r="AG8" s="114">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94.736842105263165</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3336,7 +3349,9 @@
       <c r="Q9" s="167">
         <v>1</v>
       </c>
-      <c r="R9" s="167"/>
+      <c r="R9" s="167">
+        <v>1</v>
+      </c>
       <c r="S9" s="167"/>
       <c r="T9" s="168"/>
       <c r="U9" s="141">
@@ -3363,7 +3378,7 @@
       <c r="AF9" s="131"/>
       <c r="AG9" s="114">
         <f t="shared" si="0"/>
-        <v>61.764705882352942</v>
+        <v>60.526315789473685</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3416,7 +3431,9 @@
       <c r="Q10" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R10" s="170"/>
+      <c r="R10" s="170">
+        <v>1</v>
+      </c>
       <c r="S10" s="170"/>
       <c r="T10" s="171"/>
       <c r="U10" s="151">
@@ -3444,7 +3461,7 @@
       <c r="AF10" s="134"/>
       <c r="AG10" s="114">
         <f t="shared" si="0"/>
-        <v>-15.882352941176471</v>
+        <v>-8.9473684210526319</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3497,7 +3514,9 @@
       <c r="Q11" s="167">
         <v>1</v>
       </c>
-      <c r="R11" s="167"/>
+      <c r="R11" s="167">
+        <v>1</v>
+      </c>
       <c r="S11" s="167"/>
       <c r="T11" s="168"/>
       <c r="U11" s="141">
@@ -3525,7 +3544,7 @@
       <c r="AF11" s="131"/>
       <c r="AG11" s="114">
         <f t="shared" si="0"/>
-        <v>74.117647058823536</v>
+        <v>71.578947368421055</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3576,7 +3595,9 @@
       <c r="Q12" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R12" s="167"/>
+      <c r="R12" s="167">
+        <v>1</v>
+      </c>
       <c r="S12" s="167"/>
       <c r="T12" s="168"/>
       <c r="U12" s="151">
@@ -3604,7 +3625,7 @@
       <c r="AF12" s="131"/>
       <c r="AG12" s="114">
         <f t="shared" si="0"/>
-        <v>-1.1764705882352942</v>
+        <v>4.2105263157894735</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3657,7 +3678,9 @@
       <c r="Q13" s="167">
         <v>1</v>
       </c>
-      <c r="R13" s="167"/>
+      <c r="R13" s="167">
+        <v>1</v>
+      </c>
       <c r="S13" s="167"/>
       <c r="T13" s="168"/>
       <c r="U13" s="141">
@@ -3685,7 +3708,7 @@
       <c r="AF13" s="131"/>
       <c r="AG13" s="114">
         <f t="shared" si="0"/>
-        <v>77.058823529411768</v>
+        <v>74.21052631578948</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3736,7 +3759,9 @@
       <c r="Q14" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R14" s="170"/>
+      <c r="R14" s="170">
+        <v>1</v>
+      </c>
       <c r="S14" s="170"/>
       <c r="T14" s="171"/>
       <c r="U14" s="151">
@@ -3764,7 +3789,7 @@
       <c r="AF14" s="134"/>
       <c r="AG14" s="114">
         <f t="shared" si="0"/>
-        <v>25.294117647058822</v>
+        <v>27.894736842105264</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3817,7 +3842,9 @@
       <c r="Q15" s="170">
         <v>1</v>
       </c>
-      <c r="R15" s="170"/>
+      <c r="R15" s="170">
+        <v>1</v>
+      </c>
       <c r="S15" s="170"/>
       <c r="T15" s="171"/>
       <c r="U15" s="224">
@@ -3845,7 +3872,7 @@
       <c r="AF15" s="134"/>
       <c r="AG15" s="114">
         <f t="shared" si="0"/>
-        <v>-1.1764705882352942</v>
+        <v>4.2105263157894735</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3898,7 +3925,9 @@
       <c r="Q16" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R16" s="167"/>
+      <c r="R16" s="167">
+        <v>1</v>
+      </c>
       <c r="S16" s="167"/>
       <c r="T16" s="168"/>
       <c r="U16" s="151">
@@ -3926,7 +3955,7 @@
       <c r="AF16" s="131"/>
       <c r="AG16" s="114">
         <f t="shared" si="0"/>
-        <v>-1.1764705882352942</v>
+        <v>4.2105263157894735</v>
       </c>
     </row>
     <row r="17" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -3979,7 +4008,9 @@
       <c r="Q17" s="167">
         <v>1</v>
       </c>
-      <c r="R17" s="167"/>
+      <c r="R17" s="167">
+        <v>1</v>
+      </c>
       <c r="S17" s="167"/>
       <c r="T17" s="168"/>
       <c r="U17" s="141">
@@ -4006,7 +4037,7 @@
       <c r="AF17" s="131"/>
       <c r="AG17" s="114">
         <f t="shared" si="0"/>
-        <v>77.647058823529406</v>
+        <v>74.736842105263165</v>
       </c>
     </row>
     <row r="18" spans="1:55" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4059,7 +4090,9 @@
       <c r="Q18" s="170">
         <v>1</v>
       </c>
-      <c r="R18" s="170"/>
+      <c r="R18" s="170">
+        <v>1</v>
+      </c>
       <c r="S18" s="170"/>
       <c r="T18" s="171"/>
       <c r="U18" s="141">
@@ -4086,7 +4119,7 @@
       <c r="AF18" s="134"/>
       <c r="AG18" s="114">
         <f t="shared" si="0"/>
-        <v>78.235294117647058</v>
+        <v>75.263157894736835</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -4139,7 +4172,9 @@
       <c r="Q19" s="172">
         <v>1</v>
       </c>
-      <c r="R19" s="172"/>
+      <c r="R19" s="172">
+        <v>1</v>
+      </c>
       <c r="S19" s="172"/>
       <c r="T19" s="177"/>
       <c r="U19" s="151">
@@ -4167,7 +4202,7 @@
       <c r="AF19" s="115"/>
       <c r="AG19" s="114">
         <f t="shared" si="0"/>
-        <v>4.7058823529411766</v>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
@@ -4220,7 +4255,9 @@
       <c r="Q20" s="172">
         <v>1</v>
       </c>
-      <c r="R20" s="172"/>
+      <c r="R20" s="172">
+        <v>1</v>
+      </c>
       <c r="S20" s="172"/>
       <c r="T20" s="177"/>
       <c r="U20" s="141">
@@ -4247,7 +4284,7 @@
       <c r="AF20" s="115"/>
       <c r="AG20" s="114">
         <f t="shared" si="0"/>
-        <v>92.941176470588232</v>
+        <v>88.421052631578945</v>
       </c>
     </row>
     <row r="21" spans="1:55" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -4316,7 +4353,7 @@
       <c r="AF21" s="132"/>
       <c r="AG21" s="164">
         <f t="shared" si="0"/>
-        <v>-15.882352941176471</v>
+        <v>-14.210526315789474</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
@@ -4367,7 +4404,9 @@
       <c r="Q22" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R22" s="172"/>
+      <c r="R22" s="172">
+        <v>1</v>
+      </c>
       <c r="S22" s="172"/>
       <c r="T22" s="177"/>
       <c r="U22" s="151">
@@ -4395,7 +4434,7 @@
       <c r="AF22" s="115"/>
       <c r="AG22" s="114">
         <f t="shared" si="0"/>
-        <v>-36.470588235294116</v>
+        <v>-27.368421052631579</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
@@ -4448,7 +4487,9 @@
       <c r="Q23" s="172">
         <v>1</v>
       </c>
-      <c r="R23" s="172"/>
+      <c r="R23" s="172">
+        <v>1</v>
+      </c>
       <c r="S23" s="172"/>
       <c r="T23" s="177"/>
       <c r="U23" s="151">
@@ -4476,7 +4517,7 @@
       <c r="AF23" s="115"/>
       <c r="AG23" s="114">
         <f t="shared" si="0"/>
-        <v>73.529411764705884</v>
+        <v>71.05263157894737</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
@@ -4529,7 +4570,9 @@
       <c r="Q24" s="172">
         <v>1</v>
       </c>
-      <c r="R24" s="172"/>
+      <c r="R24" s="172">
+        <v>1</v>
+      </c>
       <c r="S24" s="172"/>
       <c r="T24" s="177"/>
       <c r="U24" s="141">
@@ -4557,7 +4600,7 @@
       <c r="AF24" s="115"/>
       <c r="AG24" s="114">
         <f t="shared" si="0"/>
-        <v>82.352941176470594</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
@@ -4610,7 +4653,9 @@
       <c r="Q25" s="172">
         <v>1</v>
       </c>
-      <c r="R25" s="172"/>
+      <c r="R25" s="172">
+        <v>1</v>
+      </c>
       <c r="S25" s="172"/>
       <c r="T25" s="177"/>
       <c r="U25" s="141">
@@ -4638,7 +4683,7 @@
       <c r="AF25" s="115"/>
       <c r="AG25" s="114">
         <f t="shared" si="0"/>
-        <v>68.235294117647058</v>
+        <v>66.315789473684205</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
@@ -4689,7 +4734,9 @@
       <c r="Q26" s="172">
         <v>1</v>
       </c>
-      <c r="R26" s="172"/>
+      <c r="R26" s="172">
+        <v>1</v>
+      </c>
       <c r="S26" s="172"/>
       <c r="T26" s="177"/>
       <c r="U26" s="151">
@@ -4717,7 +4764,7 @@
       <c r="AF26" s="115"/>
       <c r="AG26" s="114">
         <f t="shared" si="0"/>
-        <v>22.352941176470587</v>
+        <v>25.263157894736842</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
@@ -4770,7 +4817,9 @@
       <c r="Q27" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="R27" s="172"/>
+      <c r="R27" s="172">
+        <v>1</v>
+      </c>
       <c r="S27" s="172"/>
       <c r="T27" s="177"/>
       <c r="U27" s="141">
@@ -4798,7 +4847,7 @@
       <c r="AF27" s="115"/>
       <c r="AG27" s="114">
         <f t="shared" si="0"/>
-        <v>45.294117647058826</v>
+        <v>45.789473684210527</v>
       </c>
     </row>
     <row r="28" spans="1:55" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4851,7 +4900,9 @@
       <c r="Q28" s="173">
         <v>1</v>
       </c>
-      <c r="R28" s="173"/>
+      <c r="R28" s="173">
+        <v>1</v>
+      </c>
       <c r="S28" s="173"/>
       <c r="T28" s="179"/>
       <c r="U28" s="141">
@@ -4878,7 +4929,7 @@
       <c r="AF28" s="116"/>
       <c r="AG28" s="114">
         <f t="shared" si="0"/>
-        <v>82.647058823529406</v>
+        <v>79.21052631578948</v>
       </c>
       <c r="AH28" s="45"/>
       <c r="AI28" s="45"/>
@@ -5008,11 +5059,11 @@
       </c>
       <c r="R30" s="71">
         <f t="shared" si="2"/>
-        <v>45635</v>
+        <v>45754</v>
       </c>
       <c r="S30" s="71">
         <f t="shared" si="2"/>
-        <v>45642</v>
+        <v>45761</v>
       </c>
       <c r="T30" s="71">
         <f t="shared" si="2"/>
@@ -5079,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="156" t="s">
         <v>167</v>
       </c>
       <c r="E31" s="58">
@@ -5121,8 +5172,12 @@
       <c r="Q31" s="226" t="s">
         <v>216</v>
       </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
+      <c r="R31" s="58">
+        <v>1</v>
+      </c>
+      <c r="S31" s="58">
+        <v>1</v>
+      </c>
       <c r="T31" s="59"/>
       <c r="U31" s="150">
         <v>100</v>
@@ -5134,7 +5189,8 @@
         <v>100</v>
       </c>
       <c r="X31" s="114">
-        <v>50</v>
+        <f xml:space="preserve"> 50 + 50</f>
+        <v>100</v>
       </c>
       <c r="Y31" s="128"/>
       <c r="Z31" s="114"/>
@@ -5146,7 +5202,7 @@
       <c r="AF31" s="129"/>
       <c r="AG31" s="114">
         <f t="shared" ref="AG31:AG53" si="3">SUM(100*SUM(E31:T31),U31:AF31)/$AG$1</f>
-        <v>76.470588235294116</v>
+        <v>81.578947368421055</v>
       </c>
     </row>
     <row r="32" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5197,8 +5253,12 @@
       <c r="Q32" s="167">
         <v>1</v>
       </c>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
+      <c r="R32" s="49">
+        <v>1</v>
+      </c>
+      <c r="S32" s="49">
+        <v>1</v>
+      </c>
       <c r="T32" s="60"/>
       <c r="U32" s="141">
         <v>100</v>
@@ -5223,7 +5283,7 @@
       <c r="AF32" s="131"/>
       <c r="AG32" s="114">
         <f t="shared" si="3"/>
-        <v>45.882352941176471</v>
+        <v>51.578947368421055</v>
       </c>
     </row>
     <row r="33" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5276,8 +5336,12 @@
       <c r="Q33" s="167">
         <v>1</v>
       </c>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
+      <c r="R33" s="49">
+        <v>1</v>
+      </c>
+      <c r="S33" s="49">
+        <v>1</v>
+      </c>
       <c r="T33" s="60"/>
       <c r="U33" s="141">
         <v>100</v>
@@ -5302,7 +5366,7 @@
       <c r="AF33" s="131"/>
       <c r="AG33" s="114">
         <f t="shared" si="3"/>
-        <v>57.647058823529413</v>
+        <v>62.10526315789474</v>
       </c>
     </row>
     <row r="34" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5355,8 +5419,12 @@
       <c r="Q34" s="167">
         <v>1</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
+      <c r="R34" s="49">
+        <v>1</v>
+      </c>
+      <c r="S34" s="49">
+        <v>1</v>
+      </c>
       <c r="T34" s="60"/>
       <c r="U34" s="141">
         <v>100</v>
@@ -5380,7 +5448,7 @@
       <c r="AF34" s="131"/>
       <c r="AG34" s="114">
         <f t="shared" si="3"/>
-        <v>99.705882352941174</v>
+        <v>99.736842105263165</v>
       </c>
     </row>
     <row r="35" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5391,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="156" t="s">
         <v>170</v>
       </c>
       <c r="E35" s="58">
@@ -5433,8 +5501,12 @@
       <c r="Q35" s="167">
         <v>1</v>
       </c>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
+      <c r="R35" s="49">
+        <v>1</v>
+      </c>
+      <c r="S35" s="49">
+        <v>1</v>
+      </c>
       <c r="T35" s="60"/>
       <c r="U35" s="141">
         <v>80</v>
@@ -5446,8 +5518,9 @@
       <c r="W35" s="147">
         <v>100</v>
       </c>
-      <c r="X35" s="115">
-        <v>-50</v>
+      <c r="X35" s="147">
+        <f>-50 + 100</f>
+        <v>50</v>
       </c>
       <c r="Y35" s="130"/>
       <c r="Z35" s="115"/>
@@ -5459,7 +5532,7 @@
       <c r="AF35" s="131"/>
       <c r="AG35" s="114">
         <f t="shared" si="3"/>
-        <v>88.235294117647058</v>
+        <v>94.736842105263165</v>
       </c>
     </row>
     <row r="36" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5510,8 +5583,12 @@
       <c r="Q36" s="226" t="s">
         <v>216</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
+      <c r="R36" s="52">
+        <v>1</v>
+      </c>
+      <c r="S36" s="52">
+        <v>-0.5</v>
+      </c>
       <c r="T36" s="61"/>
       <c r="U36" s="141">
         <v>80</v>
@@ -5536,7 +5613,7 @@
       <c r="AF36" s="134"/>
       <c r="AG36" s="114">
         <f t="shared" si="3"/>
-        <v>31.176470588235293</v>
+        <v>30.526315789473685</v>
       </c>
     </row>
     <row r="37" spans="1:55" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5589,8 +5666,12 @@
       <c r="Q37" s="170">
         <v>1</v>
       </c>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
+      <c r="R37" s="52">
+        <v>1</v>
+      </c>
+      <c r="S37" s="52">
+        <v>1</v>
+      </c>
       <c r="T37" s="61"/>
       <c r="U37" s="141">
         <v>100</v>
@@ -5614,7 +5695,7 @@
       <c r="AF37" s="134"/>
       <c r="AG37" s="114">
         <f t="shared" si="3"/>
-        <v>97.058823529411768</v>
+        <v>97.368421052631575</v>
       </c>
       <c r="AH37" s="45"/>
       <c r="AI37" s="45"/>
@@ -5689,8 +5770,12 @@
       <c r="Q38" s="170">
         <v>1</v>
       </c>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
+      <c r="R38" s="52">
+        <v>1</v>
+      </c>
+      <c r="S38" s="52">
+        <v>1</v>
+      </c>
       <c r="T38" s="61"/>
       <c r="U38" s="141">
         <v>100</v>
@@ -5702,8 +5787,9 @@
       <c r="W38" s="147">
         <v>100</v>
       </c>
-      <c r="X38" s="116">
-        <v>10</v>
+      <c r="X38" s="228">
+        <f>10 + 50</f>
+        <v>60</v>
       </c>
       <c r="Y38" s="133"/>
       <c r="Z38" s="116"/>
@@ -5715,7 +5801,7 @@
       <c r="AF38" s="134"/>
       <c r="AG38" s="114">
         <f t="shared" si="3"/>
-        <v>91.17647058823529</v>
+        <v>94.736842105263165</v>
       </c>
     </row>
     <row r="39" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5768,13 +5854,17 @@
       <c r="Q39" s="167">
         <v>1</v>
       </c>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
+      <c r="R39" s="49">
+        <v>1</v>
+      </c>
+      <c r="S39" s="49">
+        <v>1</v>
+      </c>
       <c r="T39" s="60"/>
       <c r="U39" s="141">
         <v>60</v>
       </c>
-      <c r="V39" s="148">
+      <c r="V39" s="140">
         <f>-50 + 30 - 50 -50</f>
         <v>-120</v>
       </c>
@@ -5794,7 +5884,7 @@
       <c r="AF39" s="131"/>
       <c r="AG39" s="114">
         <f t="shared" si="3"/>
-        <v>67.058823529411768</v>
+        <v>70.526315789473685</v>
       </c>
     </row>
     <row r="40" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -5847,8 +5937,12 @@
       <c r="Q40" s="167">
         <v>1</v>
       </c>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
+      <c r="R40" s="49">
+        <v>1</v>
+      </c>
+      <c r="S40" s="49">
+        <v>1</v>
+      </c>
       <c r="T40" s="60"/>
       <c r="U40" s="141">
         <v>100</v>
@@ -5860,7 +5954,7 @@
       <c r="W40" s="147">
         <v>100</v>
       </c>
-      <c r="X40" s="115">
+      <c r="X40" s="147">
         <v>100</v>
       </c>
       <c r="Y40" s="130"/>
@@ -5926,8 +6020,12 @@
       <c r="Q41" s="167">
         <v>1</v>
       </c>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
+      <c r="R41" s="49">
+        <v>1</v>
+      </c>
+      <c r="S41" s="49">
+        <v>1</v>
+      </c>
       <c r="T41" s="60"/>
       <c r="U41" s="141">
         <v>100</v>
@@ -5938,8 +6036,8 @@
       <c r="W41" s="147">
         <v>100</v>
       </c>
-      <c r="X41" s="115">
-        <v>50</v>
+      <c r="X41" s="147">
+        <v>100</v>
       </c>
       <c r="Y41" s="130"/>
       <c r="Z41" s="115"/>
@@ -5951,7 +6049,7 @@
       <c r="AF41" s="131"/>
       <c r="AG41" s="114">
         <f t="shared" si="3"/>
-        <v>97.058823529411768</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -6004,8 +6102,12 @@
       <c r="Q42" s="167">
         <v>1</v>
       </c>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
+      <c r="R42" s="49">
+        <v>1</v>
+      </c>
+      <c r="S42" s="49">
+        <v>1</v>
+      </c>
       <c r="T42" s="60"/>
       <c r="U42" s="141">
         <v>60</v>
@@ -6016,8 +6118,9 @@
       <c r="W42" s="147">
         <v>100</v>
       </c>
-      <c r="X42" s="115">
-        <v>50</v>
+      <c r="X42" s="147">
+        <f xml:space="preserve"> 50 + 50</f>
+        <v>100</v>
       </c>
       <c r="Y42" s="130"/>
       <c r="Z42" s="115"/>
@@ -6029,7 +6132,7 @@
       <c r="AF42" s="131"/>
       <c r="AG42" s="114">
         <f t="shared" si="3"/>
-        <v>94.705882352941174</v>
+        <v>97.89473684210526</v>
       </c>
     </row>
     <row r="43" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -6082,8 +6185,12 @@
       <c r="Q43" s="170">
         <v>1</v>
       </c>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
+      <c r="R43" s="52">
+        <v>1</v>
+      </c>
+      <c r="S43" s="52">
+        <v>1</v>
+      </c>
       <c r="T43" s="61"/>
       <c r="U43" s="141">
         <f xml:space="preserve"> -40 + 100</f>
@@ -6096,7 +6203,7 @@
       <c r="W43" s="147">
         <v>100</v>
       </c>
-      <c r="X43" s="116">
+      <c r="X43" s="147">
         <v>100</v>
       </c>
       <c r="Y43" s="133"/>
@@ -6109,7 +6216,7 @@
       <c r="AF43" s="134"/>
       <c r="AG43" s="114">
         <f t="shared" si="3"/>
-        <v>77.058823529411768</v>
+        <v>79.473684210526315</v>
       </c>
     </row>
     <row r="44" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -6162,8 +6269,12 @@
       <c r="Q44" s="167">
         <v>1</v>
       </c>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
+      <c r="R44" s="49">
+        <v>1</v>
+      </c>
+      <c r="S44" s="49">
+        <v>1</v>
+      </c>
       <c r="T44" s="60"/>
       <c r="U44" s="141">
         <f>-40 - 20 + 100</f>
@@ -6177,7 +6288,8 @@
         <v>0</v>
       </c>
       <c r="X44" s="115">
-        <v>-50</v>
+        <f xml:space="preserve"> -50 + 20</f>
+        <v>-30</v>
       </c>
       <c r="Y44" s="130"/>
       <c r="Z44" s="115"/>
@@ -6189,7 +6301,7 @@
       <c r="AF44" s="131"/>
       <c r="AG44" s="114">
         <f t="shared" si="3"/>
-        <v>52.352941176470587</v>
+        <v>58.421052631578945</v>
       </c>
     </row>
     <row r="45" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -6241,8 +6353,12 @@
       <c r="Q45" s="167">
         <v>1</v>
       </c>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
+      <c r="R45" s="49">
+        <v>1</v>
+      </c>
+      <c r="S45" s="49">
+        <v>1</v>
+      </c>
       <c r="T45" s="60"/>
       <c r="U45" s="141">
         <v>100</v>
@@ -6267,7 +6383,7 @@
       <c r="AF45" s="131"/>
       <c r="AG45" s="114">
         <f t="shared" si="3"/>
-        <v>43.529411764705884</v>
+        <v>49.473684210526315</v>
       </c>
     </row>
     <row r="46" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -6320,8 +6436,12 @@
       <c r="Q46" s="170">
         <v>1</v>
       </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
+      <c r="R46" s="52">
+        <v>1</v>
+      </c>
+      <c r="S46" s="52">
+        <v>1</v>
+      </c>
       <c r="T46" s="61"/>
       <c r="U46" s="141">
         <v>100</v>
@@ -6346,7 +6466,7 @@
       <c r="AF46" s="134"/>
       <c r="AG46" s="114">
         <f t="shared" si="3"/>
-        <v>87.058823529411768</v>
+        <v>88.421052631578945</v>
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
@@ -6399,8 +6519,12 @@
       <c r="Q47" s="172">
         <v>1</v>
       </c>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
+      <c r="R47" s="69">
+        <v>1</v>
+      </c>
+      <c r="S47" s="69">
+        <v>1</v>
+      </c>
       <c r="T47" s="126"/>
       <c r="U47" s="141">
         <v>100</v>
@@ -6425,7 +6549,7 @@
       <c r="AF47" s="115"/>
       <c r="AG47" s="114">
         <f t="shared" si="3"/>
-        <v>76.470588235294116</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="48" spans="1:55" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -6470,7 +6594,9 @@
       <c r="O48" s="162"/>
       <c r="P48" s="162"/>
       <c r="Q48" s="175"/>
-      <c r="R48" s="162"/>
+      <c r="R48" s="162">
+        <v>1</v>
+      </c>
       <c r="S48" s="162"/>
       <c r="T48" s="163"/>
       <c r="U48" s="117">
@@ -6494,7 +6620,7 @@
       <c r="AF48" s="132"/>
       <c r="AG48" s="164">
         <f t="shared" si="3"/>
-        <v>-12.941176470588236</v>
+        <v>-6.3157894736842106</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6547,8 +6673,12 @@
       <c r="Q49" s="172">
         <v>1</v>
       </c>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
+      <c r="R49" s="69">
+        <v>1</v>
+      </c>
+      <c r="S49" s="69">
+        <v>1</v>
+      </c>
       <c r="T49" s="126"/>
       <c r="U49" s="141">
         <f>-40 + 100</f>
@@ -6561,8 +6691,9 @@
       <c r="W49" s="147">
         <v>100</v>
       </c>
-      <c r="X49" s="115">
-        <v>-50</v>
+      <c r="X49" s="147">
+        <f xml:space="preserve"> -50 + 130</f>
+        <v>80</v>
       </c>
       <c r="Y49" s="115"/>
       <c r="Z49" s="115"/>
@@ -6574,7 +6705,7 @@
       <c r="AF49" s="115"/>
       <c r="AG49" s="114">
         <f t="shared" si="3"/>
-        <v>68.235294117647058</v>
+        <v>78.421052631578945</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6625,8 +6756,12 @@
       <c r="Q50" s="172">
         <v>1</v>
       </c>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
+      <c r="R50" s="69">
+        <v>1</v>
+      </c>
+      <c r="S50" s="69">
+        <v>1</v>
+      </c>
       <c r="T50" s="126"/>
       <c r="U50" s="141">
         <v>100</v>
@@ -6639,7 +6774,8 @@
         <v>100</v>
       </c>
       <c r="X50" s="115">
-        <v>50</v>
+        <f xml:space="preserve"> 50 + 10</f>
+        <v>60</v>
       </c>
       <c r="Y50" s="115"/>
       <c r="Z50" s="115"/>
@@ -6651,7 +6787,7 @@
       <c r="AF50" s="115"/>
       <c r="AG50" s="114">
         <f t="shared" si="3"/>
-        <v>73.529411764705884</v>
+        <v>76.84210526315789</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -6704,8 +6840,12 @@
       <c r="Q51" s="172">
         <v>1</v>
       </c>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
+      <c r="R51" s="69">
+        <v>1</v>
+      </c>
+      <c r="S51" s="69">
+        <v>1</v>
+      </c>
       <c r="T51" s="126"/>
       <c r="U51" s="141">
         <v>60</v>
@@ -6730,7 +6870,7 @@
       <c r="AF51" s="115"/>
       <c r="AG51" s="114">
         <f t="shared" si="3"/>
-        <v>77.058823529411768</v>
+        <v>79.473684210526315</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
@@ -6783,8 +6923,12 @@
       <c r="Q52" s="172">
         <v>1</v>
       </c>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
+      <c r="R52" s="69">
+        <v>1</v>
+      </c>
+      <c r="S52" s="69">
+        <v>1</v>
+      </c>
       <c r="T52" s="126"/>
       <c r="U52" s="141">
         <f xml:space="preserve"> -40 + 100</f>
@@ -6811,7 +6955,7 @@
       <c r="AF52" s="115"/>
       <c r="AG52" s="114">
         <f t="shared" si="3"/>
-        <v>59.411764705882355</v>
+        <v>63.684210526315788</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
@@ -6864,8 +7008,12 @@
       <c r="Q53" s="172">
         <v>1</v>
       </c>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
+      <c r="R53" s="69">
+        <v>1</v>
+      </c>
+      <c r="S53" s="69">
+        <v>1</v>
+      </c>
       <c r="T53" s="126"/>
       <c r="U53" s="141">
         <v>80</v>
@@ -6877,8 +7025,9 @@
       <c r="W53" s="147">
         <v>50</v>
       </c>
-      <c r="X53" s="115">
-        <v>-50</v>
+      <c r="X53" s="147">
+        <f xml:space="preserve"> -50 + 100</f>
+        <v>50</v>
       </c>
       <c r="Y53" s="115"/>
       <c r="Z53" s="115"/>
@@ -6890,7 +7039,7 @@
       <c r="AF53" s="115"/>
       <c r="AG53" s="114">
         <f t="shared" si="3"/>
-        <v>87.058823529411768</v>
+        <v>93.684210526315795</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
@@ -6948,10 +7097,12 @@
     <hyperlink ref="D27" r:id="rId8" xr:uid="{5724ED39-C186-427C-9351-C31E972E0D0B}"/>
     <hyperlink ref="D33" r:id="rId9" xr:uid="{731AEF2F-6DF1-497F-A95A-B16F9B856B5D}"/>
     <hyperlink ref="D28" r:id="rId10" xr:uid="{AA25FC74-3F51-4D27-9BF9-D46EC751E189}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{79B1B141-1530-4A08-9B22-51F1E6E9EE89}"/>
+    <hyperlink ref="D31" r:id="rId12" xr:uid="{7F0A0275-E96A-43A3-A474-1B562D038C5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -9234,7 +9385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzybo\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A4445-7533-45CF-8CDC-307090C24733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BECD1-1AE3-4746-9E26-0DDC15E33F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="3675" windowWidth="30315" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="11" r:id="rId1"/>
@@ -2606,9 +2606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65FF938-C862-403D-BD63-A154190737E6}">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2862,9 @@
       <c r="R3" s="165">
         <v>1</v>
       </c>
-      <c r="S3" s="165"/>
+      <c r="S3" s="165">
+        <v>1</v>
+      </c>
       <c r="T3" s="166"/>
       <c r="U3" s="150">
         <v>100</v>
@@ -2887,7 +2889,7 @@
       <c r="AF3" s="129"/>
       <c r="AG3" s="114">
         <f>SUM(100*SUM(E3:T3),U3:AF3)/$AG$1</f>
-        <v>50</v>
+        <v>55.263157894736842</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -2943,7 +2945,9 @@
       <c r="R4" s="167">
         <v>1</v>
       </c>
-      <c r="S4" s="167"/>
+      <c r="S4" s="167">
+        <v>1</v>
+      </c>
       <c r="T4" s="168"/>
       <c r="U4" s="141">
         <v>100</v>
@@ -2969,7 +2973,7 @@
       <c r="AF4" s="131"/>
       <c r="AG4" s="114">
         <f t="shared" ref="AG4:AG28" si="0">SUM(100*SUM(E4:T4),U4:AF4)/$AG$1</f>
-        <v>63.157894736842103</v>
+        <v>68.421052631578945</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3025,7 +3029,9 @@
       <c r="R5" s="167">
         <v>1</v>
       </c>
-      <c r="S5" s="167"/>
+      <c r="S5" s="173">
+        <v>-0.5</v>
+      </c>
       <c r="T5" s="168"/>
       <c r="U5" s="141">
         <v>100</v>
@@ -3051,7 +3057,7 @@
       <c r="AF5" s="131"/>
       <c r="AG5" s="114">
         <f t="shared" si="0"/>
-        <v>23.684210526315791</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3107,7 +3113,9 @@
       <c r="R6" s="167">
         <v>1</v>
       </c>
-      <c r="S6" s="167"/>
+      <c r="S6" s="167">
+        <v>1</v>
+      </c>
       <c r="T6" s="168"/>
       <c r="U6" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3134,7 +3142,7 @@
       <c r="AF6" s="131"/>
       <c r="AG6" s="114">
         <f t="shared" si="0"/>
-        <v>64.736842105263165</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3188,7 +3196,9 @@
       <c r="R7" s="167">
         <v>1</v>
       </c>
-      <c r="S7" s="167"/>
+      <c r="S7" s="167">
+        <v>1</v>
+      </c>
       <c r="T7" s="168"/>
       <c r="U7" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3215,7 +3225,7 @@
       <c r="AF7" s="131"/>
       <c r="AG7" s="114">
         <f t="shared" si="0"/>
-        <v>41.05263157894737</v>
+        <v>46.315789473684212</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3271,7 +3281,9 @@
       <c r="R8" s="170">
         <v>1</v>
       </c>
-      <c r="S8" s="170"/>
+      <c r="S8" s="170">
+        <v>1</v>
+      </c>
       <c r="T8" s="171"/>
       <c r="U8" s="141">
         <v>100</v>
@@ -3296,7 +3308,7 @@
       <c r="AF8" s="134"/>
       <c r="AG8" s="114">
         <f t="shared" si="0"/>
-        <v>94.736842105263165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3352,7 +3364,9 @@
       <c r="R9" s="167">
         <v>1</v>
       </c>
-      <c r="S9" s="167"/>
+      <c r="S9" s="167">
+        <v>1</v>
+      </c>
       <c r="T9" s="168"/>
       <c r="U9" s="141">
         <v>100</v>
@@ -3378,7 +3392,7 @@
       <c r="AF9" s="131"/>
       <c r="AG9" s="114">
         <f t="shared" si="0"/>
-        <v>60.526315789473685</v>
+        <v>65.78947368421052</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3434,7 +3448,9 @@
       <c r="R10" s="170">
         <v>1</v>
       </c>
-      <c r="S10" s="170"/>
+      <c r="S10" s="170">
+        <v>1</v>
+      </c>
       <c r="T10" s="171"/>
       <c r="U10" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3461,7 +3477,7 @@
       <c r="AF10" s="134"/>
       <c r="AG10" s="114">
         <f t="shared" si="0"/>
-        <v>-8.9473684210526319</v>
+        <v>-3.6842105263157894</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3517,7 +3533,9 @@
       <c r="R11" s="167">
         <v>1</v>
       </c>
-      <c r="S11" s="167"/>
+      <c r="S11" s="167">
+        <v>1</v>
+      </c>
       <c r="T11" s="168"/>
       <c r="U11" s="141">
         <f>-40 + 100</f>
@@ -3544,7 +3562,7 @@
       <c r="AF11" s="131"/>
       <c r="AG11" s="114">
         <f t="shared" si="0"/>
-        <v>71.578947368421055</v>
+        <v>76.84210526315789</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3598,7 +3616,9 @@
       <c r="R12" s="167">
         <v>1</v>
       </c>
-      <c r="S12" s="167"/>
+      <c r="S12" s="167">
+        <v>1</v>
+      </c>
       <c r="T12" s="168"/>
       <c r="U12" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3625,7 +3645,7 @@
       <c r="AF12" s="131"/>
       <c r="AG12" s="114">
         <f t="shared" si="0"/>
-        <v>4.2105263157894735</v>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3681,7 +3701,9 @@
       <c r="R13" s="167">
         <v>1</v>
       </c>
-      <c r="S13" s="167"/>
+      <c r="S13" s="167">
+        <v>1</v>
+      </c>
       <c r="T13" s="168"/>
       <c r="U13" s="141">
         <f>-40 + 100</f>
@@ -3695,8 +3717,9 @@
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="X13" s="115">
-        <v>50</v>
+      <c r="X13" s="147">
+        <f>50+50</f>
+        <v>100</v>
       </c>
       <c r="Y13" s="130"/>
       <c r="Z13" s="115"/>
@@ -3708,7 +3731,7 @@
       <c r="AF13" s="131"/>
       <c r="AG13" s="114">
         <f t="shared" si="0"/>
-        <v>74.21052631578948</v>
+        <v>82.10526315789474</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3762,7 +3785,9 @@
       <c r="R14" s="170">
         <v>1</v>
       </c>
-      <c r="S14" s="170"/>
+      <c r="S14" s="170">
+        <v>1</v>
+      </c>
       <c r="T14" s="171"/>
       <c r="U14" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3789,7 +3814,7 @@
       <c r="AF14" s="134"/>
       <c r="AG14" s="114">
         <f t="shared" si="0"/>
-        <v>27.894736842105264</v>
+        <v>33.157894736842103</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3845,7 +3870,9 @@
       <c r="R15" s="170">
         <v>1</v>
       </c>
-      <c r="S15" s="170"/>
+      <c r="S15" s="170">
+        <v>1</v>
+      </c>
       <c r="T15" s="171"/>
       <c r="U15" s="224">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3872,7 +3899,7 @@
       <c r="AF15" s="134"/>
       <c r="AG15" s="114">
         <f t="shared" si="0"/>
-        <v>4.2105263157894735</v>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -3928,7 +3955,9 @@
       <c r="R16" s="167">
         <v>1</v>
       </c>
-      <c r="S16" s="167"/>
+      <c r="S16" s="167">
+        <v>1</v>
+      </c>
       <c r="T16" s="168"/>
       <c r="U16" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -3955,7 +3984,7 @@
       <c r="AF16" s="131"/>
       <c r="AG16" s="114">
         <f t="shared" si="0"/>
-        <v>4.2105263157894735</v>
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="17" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
@@ -4011,7 +4040,9 @@
       <c r="R17" s="167">
         <v>1</v>
       </c>
-      <c r="S17" s="167"/>
+      <c r="S17" s="167">
+        <v>1</v>
+      </c>
       <c r="T17" s="168"/>
       <c r="U17" s="141">
         <v>100</v>
@@ -4037,7 +4068,7 @@
       <c r="AF17" s="131"/>
       <c r="AG17" s="114">
         <f t="shared" si="0"/>
-        <v>74.736842105263165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:55" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4093,7 +4124,9 @@
       <c r="R18" s="170">
         <v>1</v>
       </c>
-      <c r="S18" s="170"/>
+      <c r="S18" s="170">
+        <v>1</v>
+      </c>
       <c r="T18" s="171"/>
       <c r="U18" s="141">
         <v>100</v>
@@ -4119,7 +4152,7 @@
       <c r="AF18" s="134"/>
       <c r="AG18" s="114">
         <f t="shared" si="0"/>
-        <v>75.263157894736835</v>
+        <v>80.526315789473685</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -4175,7 +4208,9 @@
       <c r="R19" s="172">
         <v>1</v>
       </c>
-      <c r="S19" s="172"/>
+      <c r="S19" s="172">
+        <v>1</v>
+      </c>
       <c r="T19" s="177"/>
       <c r="U19" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -4202,7 +4237,7 @@
       <c r="AF19" s="115"/>
       <c r="AG19" s="114">
         <f t="shared" si="0"/>
-        <v>9.473684210526315</v>
+        <v>14.736842105263158</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
@@ -4258,7 +4293,9 @@
       <c r="R20" s="172">
         <v>1</v>
       </c>
-      <c r="S20" s="172"/>
+      <c r="S20" s="172">
+        <v>1</v>
+      </c>
       <c r="T20" s="177"/>
       <c r="U20" s="141">
         <v>100</v>
@@ -4284,7 +4321,7 @@
       <c r="AF20" s="115"/>
       <c r="AG20" s="114">
         <f t="shared" si="0"/>
-        <v>88.421052631578945</v>
+        <v>93.684210526315795</v>
       </c>
     </row>
     <row r="21" spans="1:55" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -4407,7 +4444,9 @@
       <c r="R22" s="172">
         <v>1</v>
       </c>
-      <c r="S22" s="172"/>
+      <c r="S22" s="172">
+        <v>1</v>
+      </c>
       <c r="T22" s="177"/>
       <c r="U22" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -4434,7 +4473,7 @@
       <c r="AF22" s="115"/>
       <c r="AG22" s="114">
         <f t="shared" si="0"/>
-        <v>-27.368421052631579</v>
+        <v>-22.105263157894736</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
@@ -4490,7 +4529,9 @@
       <c r="R23" s="172">
         <v>1</v>
       </c>
-      <c r="S23" s="172"/>
+      <c r="S23" s="172">
+        <v>1</v>
+      </c>
       <c r="T23" s="177"/>
       <c r="U23" s="151">
         <f xml:space="preserve"> -40 -40 - 40</f>
@@ -4517,7 +4558,7 @@
       <c r="AF23" s="115"/>
       <c r="AG23" s="114">
         <f t="shared" si="0"/>
-        <v>71.05263157894737</v>
+        <v>76.315789473684205</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
@@ -4573,7 +4614,9 @@
       <c r="R24" s="172">
         <v>1</v>
       </c>
-      <c r="S24" s="172"/>
+      <c r="S24" s="172">
+        <v>1</v>
+      </c>
       <c r="T24" s="177"/>
       <c r="U24" s="141">
         <f xml:space="preserve"> -40 - 40 + 100</f>
@@ -4587,8 +4630,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="X24" s="115">
-        <v>50</v>
+      <c r="X24" s="147">
+        <f xml:space="preserve"> 50 + 50</f>
+        <v>100</v>
       </c>
       <c r="Y24" s="115"/>
       <c r="Z24" s="115"/>
@@ -4600,7 +4644,7 @@
       <c r="AF24" s="115"/>
       <c r="AG24" s="114">
         <f t="shared" si="0"/>
-        <v>78.94736842105263</v>
+        <v>86.84210526315789</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
@@ -4656,7 +4700,9 @@
       <c r="R25" s="172">
         <v>1</v>
       </c>
-      <c r="S25" s="172"/>
+      <c r="S25" s="172">
+        <v>1</v>
+      </c>
       <c r="T25" s="177"/>
       <c r="U25" s="141">
         <f>-40 + 100</f>
@@ -4683,7 +4729,7 @@
       <c r="AF25" s="115"/>
       <c r="AG25" s="114">
         <f t="shared" si="0"/>
-        <v>66.315789473684205</v>
+        <v>71.578947368421055</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
@@ -4737,7 +4783,9 @@
       <c r="R26" s="172">
         <v>1</v>
       </c>
-      <c r="S26" s="172"/>
+      <c r="S26" s="172">
+        <v>1</v>
+      </c>
       <c r="T26" s="177"/>
       <c r="U26" s="151">
         <f xml:space="preserve"> -40 - 40 - 40</f>
@@ -4764,7 +4812,7 @@
       <c r="AF26" s="115"/>
       <c r="AG26" s="114">
         <f t="shared" si="0"/>
-        <v>25.263157894736842</v>
+        <v>30.526315789473685</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
@@ -4820,7 +4868,9 @@
       <c r="R27" s="172">
         <v>1</v>
       </c>
-      <c r="S27" s="172"/>
+      <c r="S27" s="172">
+        <v>1</v>
+      </c>
       <c r="T27" s="177"/>
       <c r="U27" s="141">
         <f xml:space="preserve"> -40 - 40 + 100</f>
@@ -4847,7 +4897,7 @@
       <c r="AF27" s="115"/>
       <c r="AG27" s="114">
         <f t="shared" si="0"/>
-        <v>45.789473684210527</v>
+        <v>51.05263157894737</v>
       </c>
     </row>
     <row r="28" spans="1:55" s="66" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4903,7 +4953,9 @@
       <c r="R28" s="173">
         <v>1</v>
       </c>
-      <c r="S28" s="173"/>
+      <c r="S28" s="173">
+        <v>-0.5</v>
+      </c>
       <c r="T28" s="179"/>
       <c r="U28" s="141">
         <v>100</v>
@@ -4929,7 +4981,7 @@
       <c r="AF28" s="116"/>
       <c r="AG28" s="114">
         <f t="shared" si="0"/>
-        <v>79.21052631578948</v>
+        <v>76.578947368421055</v>
       </c>
       <c r="AH28" s="45"/>
       <c r="AI28" s="45"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -2627,7 +2627,7 @@
       <selection pane="topRight" activeCell="Y18" activeCellId="0" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
@@ -7189,10 +7189,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V8" activeCellId="0" sqref="V8"/>
+      <selection pane="topRight" activeCell="V11" activeCellId="0" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
@@ -7536,7 +7536,9 @@
       <c r="U6" s="126" t="n">
         <v>100</v>
       </c>
-      <c r="V6" s="34"/>
+      <c r="V6" s="34" t="n">
+        <v>100</v>
+      </c>
       <c r="W6" s="34"/>
       <c r="X6" s="127"/>
       <c r="Y6" s="128"/>
@@ -9516,13 +9518,13 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="0.14"/>
@@ -9535,13 +9537,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="4" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="26" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="26" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -7186,10 +7186,10 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V11" activeCellId="0" sqref="V11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="S10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="AA19" activeCellId="0" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8933,8 +8933,12 @@
       <c r="Y30" s="128" t="n">
         <v>100</v>
       </c>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
+      <c r="Z30" s="106" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA30" s="106" t="n">
+        <v>100</v>
+      </c>
       <c r="AB30" s="106"/>
       <c r="AC30" s="106"/>
       <c r="AD30" s="106"/>
@@ -9518,7 +9522,7 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -7186,10 +7186,10 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="S10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="AA19" activeCellId="0" sqref="AA19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AA12" activeCellId="0" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7429,8 +7429,8 @@
       <c r="R4" s="37"/>
       <c r="S4" s="97"/>
       <c r="T4" s="107" t="n">
-        <f aca="false">-50</f>
-        <v>-50</v>
+        <f aca="false">-50+100</f>
+        <v>50</v>
       </c>
       <c r="U4" s="126"/>
       <c r="V4" s="34"/>
@@ -9522,7 +9522,7 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -7186,10 +7186,10 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA12" activeCellId="0" sqref="AA12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="S7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="Y22" activeCellId="0" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8481,7 +8481,9 @@
       <c r="W22" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="X22" s="136"/>
+      <c r="X22" s="136" t="n">
+        <v>100</v>
+      </c>
       <c r="Y22" s="137"/>
       <c r="Z22" s="138"/>
       <c r="AA22" s="138"/>
@@ -9522,7 +9524,7 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -7186,10 +7186,10 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="S7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="Y22" activeCellId="0" sqref="Y22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7432,7 +7432,9 @@
         <f aca="false">-50+100</f>
         <v>50</v>
       </c>
-      <c r="U4" s="126"/>
+      <c r="U4" s="126" t="n">
+        <v>100</v>
+      </c>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
       <c r="X4" s="127"/>
@@ -9524,7 +9526,7 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -7186,10 +7186,10 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U5" activeCellId="0" sqref="U5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="S7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="W24" activeCellId="0" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7435,7 +7435,9 @@
       <c r="U4" s="126" t="n">
         <v>100</v>
       </c>
-      <c r="V4" s="34"/>
+      <c r="V4" s="34" t="n">
+        <v>60</v>
+      </c>
       <c r="W4" s="34"/>
       <c r="X4" s="127"/>
       <c r="Y4" s="128"/>
@@ -9526,7 +9528,7 @@
       <selection pane="topRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="18"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B0985-39BC-47A0-9A54-1C6BB92E5A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19636BCE-788B-4712-8C19-4C0AEEEF670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Ruslan Akhpashev</author>
   </authors>
   <commentList>
     <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
@@ -93,7 +94,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Сдадут на неделе с 31 марта</t>
+          <t xml:space="preserve">Сдадут на неделе с 31 марта
+21.04 - нет прогресса
+</t>
         </r>
       </text>
     </comment>
@@ -234,6 +237,33 @@
     исправился
 Reply:
     Приглядеться</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE27" authorId="1" shapeId="0" xr:uid="{9BB4B8BF-499C-4CDE-A111-1BC6D56B8A44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ruslan Akhpashev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1) Refactoring
+2) отобразить таймер
+3) название мелодии отобразить 
+</t>
         </r>
       </text>
     </comment>
@@ -718,9 +748,6 @@
   </si>
   <si>
     <t>Щёголева Виктория Андреевна</t>
-  </si>
-  <si>
-    <t>https://github.com/Vikashweps/android-</t>
   </si>
   <si>
     <t>ИА-332</t>
@@ -1211,6 +1238,9 @@
   <si>
     <t>SSH</t>
   </si>
+  <si>
+    <t>https://github.com/Vikashweps/Android</t>
+  </si>
 </sst>
 </file>
 
@@ -1219,7 +1249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1351,6 +1381,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1746,7 +1789,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,6 +2194,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2551,8 +2596,8 @@
   <dimension ref="A1:BJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W18" sqref="W18"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,13 +2814,13 @@
         <v>7</v>
       </c>
       <c r="AE2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF2" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="AF2" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="AG2" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
@@ -2887,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="188" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="28">
@@ -2957,7 +3002,8 @@
         <v>100</v>
       </c>
       <c r="AE4" s="32">
-        <v>-50</v>
+        <f>-50 + 50</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="39"/>
       <c r="AG4" s="32"/>
@@ -2969,7 +3015,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="31">
         <f t="shared" ref="AN4:AN27" si="1">SUM(100*SUM(E4:AA4),AB4:AM4)/$AN$1</f>
-        <v>80</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3974,8 +4020,8 @@
         <v>-120</v>
       </c>
       <c r="AC15" s="30">
-        <f>-50 - 50</f>
-        <v>-100</v>
+        <f>-50 - 50 + 1</f>
+        <v>-99</v>
       </c>
       <c r="AD15" s="32">
         <f t="shared" si="0"/>
@@ -3994,7 +4040,7 @@
       <c r="AM15" s="52"/>
       <c r="AN15" s="31">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -4634,8 +4680,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AE22" s="32">
-        <v>70</v>
+      <c r="AE22" s="203">
+        <f>70+30</f>
+        <v>100</v>
       </c>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
@@ -4647,7 +4694,7 @@
       <c r="AM22" s="32"/>
       <c r="AN22" s="31">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
@@ -5033,8 +5080,8 @@
         <v>2</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="65" t="s">
-        <v>54</v>
+      <c r="D27" s="202" t="s">
+        <v>217</v>
       </c>
       <c r="E27" s="56">
         <v>1</v>
@@ -5103,7 +5150,8 @@
         <v>100</v>
       </c>
       <c r="AE27" s="51">
-        <v>5</v>
+        <f>5+10</f>
+        <v>15</v>
       </c>
       <c r="AF27" s="51"/>
       <c r="AG27" s="51"/>
@@ -5115,7 +5163,7 @@
       <c r="AM27" s="51"/>
       <c r="AN27" s="31">
         <f t="shared" si="1"/>
-        <v>87.75</v>
+        <v>88.25</v>
       </c>
       <c r="AO27" s="53"/>
       <c r="AP27" s="53"/>
@@ -5142,7 +5190,7 @@
     </row>
     <row r="28" spans="1:62" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="69"/>
@@ -5187,79 +5235,79 @@
         <v>1</v>
       </c>
       <c r="B29" s="73" t="str">
-        <f>B2</f>
+        <f t="shared" ref="B29:T29" si="2">B2</f>
         <v>КР1</v>
       </c>
       <c r="C29" s="74" t="str">
-        <f>C2</f>
+        <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
       <c r="D29" s="75" t="str">
-        <f>D2</f>
+        <f t="shared" si="2"/>
         <v>Github</v>
       </c>
       <c r="E29" s="16">
-        <f>E2</f>
+        <f t="shared" si="2"/>
         <v>45691</v>
       </c>
       <c r="F29" s="18">
-        <f>F2</f>
+        <f t="shared" si="2"/>
         <v>45698</v>
       </c>
       <c r="G29" s="18">
-        <f>G2</f>
+        <f t="shared" si="2"/>
         <v>45701</v>
       </c>
       <c r="H29" s="18">
-        <f>H2</f>
+        <f t="shared" si="2"/>
         <v>45705</v>
       </c>
       <c r="I29" s="18">
-        <f>I2</f>
+        <f t="shared" si="2"/>
         <v>45712</v>
       </c>
       <c r="J29" s="16">
-        <f>J2</f>
+        <f t="shared" si="2"/>
         <v>45715</v>
       </c>
       <c r="K29" s="16">
-        <f>K2</f>
+        <f t="shared" si="2"/>
         <v>45719</v>
       </c>
       <c r="L29" s="16">
-        <f>L2</f>
+        <f t="shared" si="2"/>
         <v>45726</v>
       </c>
       <c r="M29" s="18">
-        <f>M2</f>
+        <f t="shared" si="2"/>
         <v>45729</v>
       </c>
       <c r="N29" s="18">
-        <f>N2</f>
+        <f t="shared" si="2"/>
         <v>45733</v>
       </c>
       <c r="O29" s="18">
-        <f>O2</f>
+        <f t="shared" si="2"/>
         <v>45740</v>
       </c>
       <c r="P29" s="18">
-        <f>P2</f>
+        <f t="shared" si="2"/>
         <v>45743</v>
       </c>
       <c r="Q29" s="18">
-        <f>Q2</f>
+        <f t="shared" si="2"/>
         <v>45747</v>
       </c>
       <c r="R29" s="18">
-        <f>R2</f>
+        <f t="shared" si="2"/>
         <v>45754</v>
       </c>
       <c r="S29" s="18">
-        <f>S2</f>
+        <f t="shared" si="2"/>
         <v>45761</v>
       </c>
       <c r="T29" s="18">
-        <f>T2</f>
+        <f t="shared" si="2"/>
         <v>45768</v>
       </c>
       <c r="U29" s="18"/>
@@ -5270,68 +5318,68 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="76" t="str">
-        <f>AB2</f>
+        <f t="shared" ref="AB29:AN29" si="3">AB2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
       <c r="AC29" s="16" t="str">
-        <f>AC2</f>
+        <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
       <c r="AD29" s="16" t="str">
-        <f>AD2</f>
+        <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
       <c r="AE29" s="16" t="str">
-        <f>AE2</f>
+        <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
       <c r="AF29" s="16" t="str">
-        <f>AF2</f>
+        <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
       <c r="AG29" s="16" t="str">
-        <f>AG2</f>
+        <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
       <c r="AH29" s="16">
-        <f>AH2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI29" s="16">
-        <f>AI2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="16">
-        <f>AJ2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK29" s="16">
-        <f>AK2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL29" s="16">
-        <f>AL2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM29" s="16">
-        <f>AM2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN29" s="16" t="str">
-        <f>AN2</f>
+        <f t="shared" si="3"/>
         <v>КАРМА</v>
       </c>
     </row>
     <row r="30" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="25">
         <v>2</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
@@ -5416,7 +5464,7 @@
     </row>
     <row r="31" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="25">
         <v>0</v>
@@ -5501,20 +5549,20 @@
       <c r="AL31" s="32"/>
       <c r="AM31" s="40"/>
       <c r="AN31" s="31">
-        <f t="shared" ref="AN31:AN50" si="2">SUM(100*SUM(E31:AA31),AB31:AM31)/$AN$1</f>
+        <f t="shared" ref="AN31:AN50" si="4">SUM(100*SUM(E31:AA31),AB31:AM31)/$AN$1</f>
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="25">
         <v>0</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
@@ -5593,20 +5641,20 @@
       <c r="AL32" s="32"/>
       <c r="AM32" s="40"/>
       <c r="AN32" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="25">
         <v>2</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="28">
         <v>1</v>
@@ -5684,20 +5732,20 @@
       <c r="AL33" s="32"/>
       <c r="AM33" s="40"/>
       <c r="AN33" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>109.75</v>
       </c>
     </row>
     <row r="34" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="25">
         <v>2</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
@@ -5777,13 +5825,13 @@
       <c r="AL34" s="32"/>
       <c r="AM34" s="40"/>
       <c r="AN34" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="25">
         <v>0</v>
@@ -5867,20 +5915,20 @@
       <c r="AL35" s="51"/>
       <c r="AM35" s="52"/>
       <c r="AN35" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:62" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="25">
         <v>2</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" s="56">
         <v>1</v>
@@ -5959,7 +6007,7 @@
       <c r="AL36" s="51"/>
       <c r="AM36" s="52"/>
       <c r="AN36" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="AO36" s="53"/>
@@ -5987,14 +6035,14 @@
     </row>
     <row r="37" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="25">
         <v>2</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
@@ -6074,20 +6122,20 @@
       <c r="AL37" s="51"/>
       <c r="AM37" s="52"/>
       <c r="AN37" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="25">
         <v>0</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="28">
         <v>1</v>
@@ -6167,20 +6215,20 @@
       <c r="AL38" s="32"/>
       <c r="AM38" s="40"/>
       <c r="AN38" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84.5</v>
       </c>
     </row>
     <row r="39" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="25">
         <v>2</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="28">
         <v>1</v>
@@ -6259,20 +6307,20 @@
       <c r="AL39" s="32"/>
       <c r="AM39" s="40"/>
       <c r="AN39" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="25">
         <v>2</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="28">
         <v>1</v>
@@ -6350,20 +6398,20 @@
       <c r="AL40" s="32"/>
       <c r="AM40" s="40"/>
       <c r="AN40" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="25">
         <v>2</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="28">
         <v>1</v>
@@ -6442,20 +6490,20 @@
       <c r="AL41" s="32"/>
       <c r="AM41" s="40"/>
       <c r="AN41" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="25">
         <v>2</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="28">
         <v>1</v>
@@ -6535,20 +6583,20 @@
       <c r="AL42" s="51"/>
       <c r="AM42" s="52"/>
       <c r="AN42" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90.5</v>
       </c>
     </row>
     <row r="43" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="25">
         <v>0</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="28">
         <v>1</v>
@@ -6629,19 +6677,19 @@
       <c r="AL43" s="32"/>
       <c r="AM43" s="40"/>
       <c r="AN43" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.5</v>
       </c>
     </row>
     <row r="44" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="25">
         <v>0</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="28">
         <v>1</v>
@@ -6721,20 +6769,20 @@
       <c r="AL44" s="32"/>
       <c r="AM44" s="40"/>
       <c r="AN44" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="25">
         <v>1</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="28">
         <v>1</v>
@@ -6814,20 +6862,20 @@
       <c r="AL45" s="51"/>
       <c r="AM45" s="52"/>
       <c r="AN45" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="25">
         <v>0</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="28">
         <v>1</v>
@@ -6906,20 +6954,20 @@
       <c r="AL46" s="32"/>
       <c r="AM46" s="32"/>
       <c r="AN46" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="25">
         <v>1</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="28">
         <v>1</v>
@@ -7000,13 +7048,13 @@
       <c r="AL47" s="32"/>
       <c r="AM47" s="32"/>
       <c r="AN47" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="25">
         <v>1</v>
@@ -7091,20 +7139,20 @@
       <c r="AL48" s="32"/>
       <c r="AM48" s="32"/>
       <c r="AN48" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="25">
         <v>0</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="28">
         <v>1</v>
@@ -7184,20 +7232,20 @@
       <c r="AL49" s="32"/>
       <c r="AM49" s="32"/>
       <c r="AN49" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="25">
         <v>1</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="28">
         <v>1</v>
@@ -7278,20 +7326,20 @@
       <c r="AL50" s="32"/>
       <c r="AM50" s="32"/>
       <c r="AN50" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75.5</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="25">
         <v>2</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="28">
         <v>1</v>
@@ -7435,10 +7483,11 @@
     <hyperlink ref="D34" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="D36" r:id="rId13" xr:uid="{6411E2E6-ED66-41C8-A73D-E16DE920C708}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{AEDE007F-750F-45B1-B907-B9732B9E0738}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -7472,7 +7521,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -7494,7 +7543,7 @@
       <c r="U1" s="93"/>
       <c r="V1" s="69"/>
       <c r="W1" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X1" s="95"/>
       <c r="Y1" s="15"/>
@@ -7516,22 +7565,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="J2" s="16">
         <v>45579</v>
@@ -7564,40 +7613,40 @@
         <v>45649</v>
       </c>
       <c r="T2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="100" t="s">
+      <c r="V2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="Y2" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="102" t="s">
+      <c r="Z2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
       <c r="AE2" s="22"/>
       <c r="AF2" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="104">
         <v>0</v>
@@ -7654,7 +7703,7 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="26">
         <v>0</v>
@@ -7711,7 +7760,7 @@
     </row>
     <row r="5" spans="1:32" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -7760,7 +7809,7 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="26">
         <v>0</v>
@@ -7770,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="35">
         <v>0</v>
@@ -7816,7 +7865,7 @@
     </row>
     <row r="7" spans="1:32" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="25">
         <v>0</v>
@@ -7869,7 +7918,7 @@
     </row>
     <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="26">
         <v>0</v>
@@ -7920,7 +7969,7 @@
     </row>
     <row r="9" spans="1:32" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -7958,7 +8007,7 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="26">
         <v>2</v>
@@ -8022,7 +8071,7 @@
     </row>
     <row r="11" spans="1:32" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
@@ -8075,7 +8124,7 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="26">
         <v>0</v>
@@ -8134,7 +8183,7 @@
     </row>
     <row r="13" spans="1:32" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="59">
         <v>0</v>
@@ -8187,7 +8236,7 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="26">
         <v>2</v>
@@ -8251,7 +8300,7 @@
     </row>
     <row r="15" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="26">
         <v>0</v>
@@ -8304,7 +8353,7 @@
     </row>
     <row r="16" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
@@ -8455,7 +8504,7 @@
     </row>
     <row r="18" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="104">
         <v>2</v>
@@ -8514,7 +8563,7 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="26">
         <v>0</v>
@@ -8567,7 +8616,7 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="26">
         <v>2</v>
@@ -8634,7 +8683,7 @@
     </row>
     <row r="21" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="26">
         <v>2</v>
@@ -8699,7 +8748,7 @@
     </row>
     <row r="22" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="26">
         <v>1</v>
@@ -8759,7 +8808,7 @@
     </row>
     <row r="23" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
@@ -8812,7 +8861,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="26">
         <v>0</v>
@@ -8865,7 +8914,7 @@
     </row>
     <row r="25" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="26">
         <v>0</v>
@@ -8918,7 +8967,7 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="26">
         <v>0</v>
@@ -8971,7 +9020,7 @@
     </row>
     <row r="27" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="26">
         <v>0</v>
@@ -9023,7 +9072,7 @@
     </row>
     <row r="28" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="26">
         <v>1</v>
@@ -9081,7 +9130,7 @@
     </row>
     <row r="29" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="26">
         <v>2</v>
@@ -9147,7 +9196,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="26">
         <v>2</v>
@@ -9213,7 +9262,7 @@
     </row>
     <row r="31" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="26">
         <v>0</v>
@@ -9271,7 +9320,7 @@
     </row>
     <row r="32" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="26">
         <v>0</v>
@@ -9324,7 +9373,7 @@
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="26">
         <v>2</v>
@@ -9809,10 +9858,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="145" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="145" t="s">
-        <v>145</v>
       </c>
       <c r="C1" s="146" t="s">
         <v>4</v>
@@ -9847,7 +9896,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="155">
         <f t="shared" ref="B2:B23" si="0">SUM($D2:$T2)</f>
@@ -9882,14 +9931,14 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" s="158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="147"/>
       <c r="E3" s="147"/>
@@ -9919,14 +9968,14 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="159">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="147"/>
       <c r="E4" s="147"/>
@@ -9956,14 +10005,14 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" s="158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="147"/>
       <c r="E5" s="147"/>
@@ -9993,14 +10042,14 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="147"/>
       <c r="E6" s="147"/>
@@ -10030,14 +10079,14 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="155">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="147"/>
       <c r="E7" s="147"/>
@@ -10067,7 +10116,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="157">
         <f t="shared" si="0"/>
@@ -10102,7 +10151,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="157">
         <f t="shared" si="0"/>
@@ -10137,7 +10186,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="157">
         <f t="shared" si="0"/>
@@ -10172,14 +10221,14 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="147"/>
       <c r="E11" s="147"/>
@@ -10209,14 +10258,14 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="147"/>
       <c r="E12" s="147"/>
@@ -10246,14 +10295,14 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="147"/>
       <c r="E13" s="147"/>
@@ -10283,14 +10332,14 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="147"/>
       <c r="E14" s="147"/>
@@ -10320,14 +10369,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="147"/>
       <c r="E15" s="147"/>
@@ -10357,14 +10406,14 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="147"/>
       <c r="E16" s="147"/>
@@ -10394,14 +10443,14 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="161" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="147"/>
       <c r="E17" s="147"/>
@@ -10431,14 +10480,14 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="147"/>
       <c r="E18" s="147"/>
@@ -10468,14 +10517,14 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="159">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C19" s="160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="147"/>
       <c r="E19" s="147"/>
@@ -10505,14 +10554,14 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="155">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="147"/>
       <c r="E20" s="147"/>
@@ -10542,14 +10591,14 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="164">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" s="165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="166"/>
       <c r="E21" s="166"/>
@@ -10579,14 +10628,14 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="164">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" s="165" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="166"/>
       <c r="E22" s="166"/>
@@ -10616,7 +10665,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="170">
         <f t="shared" si="0"/>
@@ -10679,7 +10728,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="144" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="173" t="str">
         <f>B1</f>
@@ -10715,14 +10764,14 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="155">
         <f t="shared" ref="B26:B39" si="1">SUM($D26:$T26)</f>
         <v>2</v>
       </c>
       <c r="C26" s="161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="147"/>
       <c r="E26" s="147"/>
@@ -10752,14 +10801,14 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" s="157">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C27" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="147"/>
       <c r="E27" s="147"/>
@@ -10789,14 +10838,14 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="155">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C28" s="161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="147"/>
@@ -10826,14 +10875,14 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="155">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C29" s="174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="147"/>
       <c r="E29" s="147"/>
@@ -10863,14 +10912,14 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="157">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C30" s="158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="147"/>
       <c r="E30" s="147"/>
@@ -10900,14 +10949,14 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="157">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C31" s="158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="147"/>
       <c r="E31" s="147"/>
@@ -10937,14 +10986,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="154" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="157">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C32" s="158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="147"/>
       <c r="E32" s="147"/>
@@ -10974,14 +11023,14 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="159">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C33" s="160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="147"/>
       <c r="E33" s="147"/>
@@ -11011,14 +11060,14 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="175">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C34" s="176" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="147"/>
       <c r="E34" s="147"/>
@@ -11048,14 +11097,14 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="159">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C35" s="160" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="147"/>
       <c r="E35" s="147"/>
@@ -11085,14 +11134,14 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="155">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C36" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="147"/>
       <c r="E36" s="147"/>
@@ -11122,14 +11171,14 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="175">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C37" s="176" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="147"/>
       <c r="E37" s="147"/>
@@ -11159,14 +11208,14 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="157">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C38" s="158" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="147"/>
       <c r="E38" s="147"/>
@@ -11196,14 +11245,14 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" s="157">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C39" s="158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="147"/>
       <c r="E39" s="147"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19636BCE-788B-4712-8C19-4C0AEEEF670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C7D39-C91A-426A-BDD0-0812FF14A9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId1"/>
@@ -455,6 +455,32 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Сделает в пятницу</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE43" authorId="1" shapeId="0" xr:uid="{2902D8EA-4B55-4579-94A9-FD082D5D46F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ruslan Akhpashev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+добавить вывод названия мелодии
+секундный вывод текущей мелодии
+</t>
         </r>
       </text>
     </comment>
@@ -2595,9 +2621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF43" sqref="AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2642,7 @@
     <col min="29" max="29" width="11.28515625" style="4" customWidth="1"/>
     <col min="30" max="30" width="8.140625" customWidth="1"/>
     <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1"/>
     <col min="33" max="39" width="9.140625" customWidth="1"/>
     <col min="40" max="40" width="10" customWidth="1"/>
   </cols>
@@ -6595,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="188" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="28">
@@ -6665,8 +6691,8 @@
         <v>0</v>
       </c>
       <c r="AE43" s="32">
-        <f>-50 + 20</f>
-        <v>-30</v>
+        <f>-50 + 20 - 20</f>
+        <v>-50</v>
       </c>
       <c r="AF43" s="39"/>
       <c r="AG43" s="32"/>
@@ -6678,7 +6704,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="31">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="44" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -7484,10 +7510,11 @@
     <hyperlink ref="D45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="D36" r:id="rId13" xr:uid="{6411E2E6-ED66-41C8-A73D-E16DE920C708}"/>
     <hyperlink ref="D4" r:id="rId14" xr:uid="{AEDE007F-750F-45B1-B907-B9732B9E0738}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{7544E508-6DF0-4909-B318-3645EA5D3E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C7D39-C91A-426A-BDD0-0812FF14A9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CC298-86FD-4EC9-B3E5-98E2D4F546F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId1"/>
@@ -533,6 +533,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE45" authorId="1" shapeId="0" xr:uid="{493D83F5-905A-4BF1-8175-103AF0361D33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ruslan Akhpashev:
+Будет работать из 307
+- добавить картинки вместо play\pause
+.setBackgroudPic</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -612,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="220">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1267,6 +1284,12 @@
   <si>
     <t>https://github.com/Vikashweps/Android</t>
   </si>
+  <si>
+    <t>ПР5. Telephony</t>
+  </si>
+  <si>
+    <t>https://github.com/PinkPrinccess/appCalculate</t>
+  </si>
 </sst>
 </file>
 
@@ -1422,7 +1445,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1535,6 +1558,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1815,7 +1844,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2222,6 +2251,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2621,9 +2651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF43" sqref="AF43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,8 +2672,10 @@
     <col min="29" max="29" width="11.28515625" style="4" customWidth="1"/>
     <col min="30" max="30" width="8.140625" customWidth="1"/>
     <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" customWidth="1"/>
-    <col min="33" max="39" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" customWidth="1"/>
+    <col min="35" max="39" width="9.140625" customWidth="1"/>
     <col min="40" max="40" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2701,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="U1" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1" s="8">
         <v>0</v>
@@ -2737,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="7">
         <v>0</v>
@@ -2759,7 +2791,7 @@
       </c>
       <c r="AN1" s="4">
         <f>SUM(E1:AM1)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="23" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2823,8 +2855,12 @@
       <c r="T2" s="18">
         <v>45768</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="U2" s="18">
+        <v>45771</v>
+      </c>
+      <c r="V2" s="18">
+        <v>45775</v>
+      </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
@@ -2848,7 +2884,9 @@
       <c r="AG2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="AH2" s="20"/>
+      <c r="AH2" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="AI2" s="20"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
@@ -2917,8 +2955,12 @@
       <c r="T3" s="29">
         <v>-1</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="U3" s="29">
+        <v>1</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="W3" s="29"/>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
@@ -2947,7 +2989,7 @@
       <c r="AM3" s="34"/>
       <c r="AN3" s="31">
         <f>SUM(100*SUM(E3:AA3),AB3:AM3)/$AN$1</f>
-        <v>57.5</v>
+        <v>54.347826086956523</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3009,8 +3051,12 @@
       <c r="T4" s="36">
         <v>1</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="U4" s="29">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
       <c r="W4" s="36"/>
       <c r="X4" s="36"/>
       <c r="Y4" s="36"/>
@@ -3041,7 +3087,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="31">
         <f t="shared" ref="AN4:AN27" si="1">SUM(100*SUM(E4:AA4),AB4:AM4)/$AN$1</f>
-        <v>82.5</v>
+        <v>80.434782608695656</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3103,8 +3149,12 @@
       <c r="T5" s="36">
         <v>-1</v>
       </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
+      <c r="U5" s="29">
+        <v>1</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="W5" s="36"/>
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
@@ -3134,7 +3184,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="31">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26.086956521739129</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3196,8 +3246,12 @@
       <c r="T6" s="36">
         <v>1</v>
       </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
+      <c r="U6" s="29">
+        <v>1</v>
+      </c>
+      <c r="V6" s="36">
+        <v>1</v>
+      </c>
       <c r="W6" s="36"/>
       <c r="X6" s="36"/>
       <c r="Y6" s="36"/>
@@ -3228,7 +3282,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="31">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>79.565217391304344</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3288,8 +3342,12 @@
       <c r="T7" s="36">
         <v>-1</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
+      <c r="U7" s="29">
+        <v>1</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="W7" s="36"/>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
@@ -3320,7 +3378,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="31">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>46.956521739130437</v>
       </c>
     </row>
     <row r="8" spans="1:40" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3382,8 +3440,12 @@
       <c r="T8" s="48">
         <v>1</v>
       </c>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
+      <c r="U8" s="29">
+        <v>1</v>
+      </c>
+      <c r="V8" s="48">
+        <v>1</v>
+      </c>
       <c r="W8" s="48"/>
       <c r="X8" s="48"/>
       <c r="Y8" s="48"/>
@@ -3403,7 +3465,9 @@
         <v>100</v>
       </c>
       <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
+      <c r="AG8" s="190">
+        <v>100</v>
+      </c>
       <c r="AH8" s="51"/>
       <c r="AI8" s="51"/>
       <c r="AJ8" s="51"/>
@@ -3412,7 +3476,7 @@
       <c r="AM8" s="52"/>
       <c r="AN8" s="31">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>108.69565217391305</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3474,8 +3538,12 @@
       <c r="T9" s="36">
         <v>1</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
+      <c r="U9" s="29">
+        <v>1</v>
+      </c>
+      <c r="V9" s="36">
+        <v>1</v>
+      </c>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
@@ -3505,7 +3573,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="31">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>76.086956521739125</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3567,8 +3635,12 @@
       <c r="T10" s="48">
         <v>1</v>
       </c>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
+      <c r="U10" s="29">
+        <v>1</v>
+      </c>
+      <c r="V10" s="48">
+        <v>1</v>
+      </c>
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
       <c r="Y10" s="48"/>
@@ -3599,7 +3671,7 @@
       <c r="AM10" s="52"/>
       <c r="AN10" s="31">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>18.695652173913043</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3661,8 +3733,12 @@
       <c r="T11" s="36">
         <v>1</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
+      <c r="U11" s="29">
+        <v>1</v>
+      </c>
+      <c r="V11" s="36">
+        <v>1</v>
+      </c>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
@@ -3680,8 +3756,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AE11" s="32">
-        <v>50</v>
+      <c r="AE11" s="203">
+        <f>50+50</f>
+        <v>100</v>
       </c>
       <c r="AF11" s="39"/>
       <c r="AG11" s="32"/>
@@ -3693,7 +3770,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="31">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>87.391304347826093</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3753,8 +3830,12 @@
       <c r="T12" s="36">
         <v>-1</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="U12" s="29">
+        <v>1</v>
+      </c>
+      <c r="V12" s="36">
+        <v>1</v>
+      </c>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
@@ -3785,7 +3866,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20.869565217391305</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -3847,8 +3928,12 @@
       <c r="T13" s="36">
         <v>1</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="U13" s="29">
+        <v>1</v>
+      </c>
+      <c r="V13" s="36">
+        <v>1</v>
+      </c>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
@@ -3880,7 +3965,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="31">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>89.565217391304344</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3940,8 +4025,12 @@
       <c r="T14" s="48">
         <v>-1</v>
       </c>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
+      <c r="U14" s="29">
+        <v>1</v>
+      </c>
+      <c r="V14" s="48">
+        <v>1</v>
+      </c>
       <c r="W14" s="48"/>
       <c r="X14" s="48"/>
       <c r="Y14" s="48"/>
@@ -3972,7 +4061,7 @@
       <c r="AM14" s="52"/>
       <c r="AN14" s="31">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>40.434782608695649</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4034,8 +4123,12 @@
       <c r="T15" s="48">
         <v>1</v>
       </c>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
+      <c r="U15" s="29">
+        <v>1</v>
+      </c>
+      <c r="V15" s="48">
+        <v>1</v>
+      </c>
       <c r="W15" s="48"/>
       <c r="X15" s="48"/>
       <c r="Y15" s="48"/>
@@ -4066,7 +4159,7 @@
       <c r="AM15" s="52"/>
       <c r="AN15" s="31">
         <f t="shared" si="1"/>
-        <v>24.05</v>
+        <v>29.608695652173914</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -4128,8 +4221,12 @@
       <c r="T16" s="36">
         <v>-1</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="U16" s="29">
+        <v>1</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
@@ -4160,7 +4257,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16.521739130434781</v>
       </c>
     </row>
     <row r="17" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -4222,8 +4319,12 @@
       <c r="T17" s="36">
         <v>-1</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="U17" s="29">
+        <v>1</v>
+      </c>
+      <c r="V17" s="36">
+        <v>1</v>
+      </c>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
@@ -4253,7 +4354,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="31">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>79.130434782608702</v>
       </c>
     </row>
     <row r="18" spans="1:62" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4315,8 +4416,12 @@
       <c r="T18" s="48">
         <v>-1</v>
       </c>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="U18" s="29">
+        <v>1</v>
+      </c>
+      <c r="V18" s="48">
+        <v>1</v>
+      </c>
       <c r="W18" s="48"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
@@ -4346,7 +4451,7 @@
       <c r="AM18" s="52"/>
       <c r="AN18" s="31">
         <f t="shared" si="1"/>
-        <v>81.5</v>
+        <v>79.565217391304344</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
@@ -4408,8 +4513,12 @@
       <c r="T19" s="54">
         <v>1</v>
       </c>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
+      <c r="U19" s="29">
+        <v>1</v>
+      </c>
+      <c r="V19" s="54">
+        <v>1</v>
+      </c>
       <c r="W19" s="54"/>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4440,7 +4549,7 @@
       <c r="AM19" s="32"/>
       <c r="AN19" s="31">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>33.913043478260867</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
@@ -4502,8 +4611,12 @@
       <c r="T20" s="54">
         <v>-1</v>
       </c>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
+      <c r="U20" s="29">
+        <v>1</v>
+      </c>
+      <c r="V20" s="54">
+        <v>1</v>
+      </c>
       <c r="W20" s="54"/>
       <c r="X20" s="54"/>
       <c r="Y20" s="54"/>
@@ -4520,8 +4633,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AE20" s="32">
-        <v>50</v>
+      <c r="AE20" s="203">
+        <f>50+50</f>
+        <v>100</v>
       </c>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
@@ -4533,7 +4647,7 @@
       <c r="AM20" s="32"/>
       <c r="AN20" s="31">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>92.608695652173907</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
@@ -4593,8 +4707,12 @@
       <c r="T21" s="54">
         <v>-1</v>
       </c>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
+      <c r="U21" s="29">
+        <v>1</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="W21" s="54"/>
       <c r="X21" s="54"/>
       <c r="Y21" s="54"/>
@@ -4625,7 +4743,7 @@
       <c r="AM21" s="32"/>
       <c r="AN21" s="31">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-9.5652173913043477</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.25">
@@ -4687,8 +4805,12 @@
       <c r="T22" s="54">
         <v>1</v>
       </c>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
+      <c r="U22" s="29">
+        <v>1</v>
+      </c>
+      <c r="V22" s="54">
+        <v>1</v>
+      </c>
       <c r="W22" s="54"/>
       <c r="X22" s="54"/>
       <c r="Y22" s="54"/>
@@ -4711,7 +4833,9 @@
         <v>100</v>
       </c>
       <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
+      <c r="AG22" s="203">
+        <v>100</v>
+      </c>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
       <c r="AJ22" s="32"/>
@@ -4720,7 +4844,7 @@
       <c r="AM22" s="32"/>
       <c r="AN22" s="31">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90.434782608695656</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
@@ -4782,8 +4906,12 @@
       <c r="T23" s="54">
         <v>-1</v>
       </c>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
+      <c r="U23" s="29">
+        <v>1</v>
+      </c>
+      <c r="V23" s="54">
+        <v>1</v>
+      </c>
       <c r="W23" s="54"/>
       <c r="X23" s="54"/>
       <c r="Y23" s="54"/>
@@ -4815,7 +4943,7 @@
       <c r="AM23" s="32"/>
       <c r="AN23" s="31">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.782608695652172</v>
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
@@ -4877,8 +5005,12 @@
       <c r="T24" s="54">
         <v>1</v>
       </c>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
+      <c r="U24" s="29">
+        <v>1</v>
+      </c>
+      <c r="V24" s="54">
+        <v>1</v>
+      </c>
       <c r="W24" s="54"/>
       <c r="X24" s="54"/>
       <c r="Y24" s="54"/>
@@ -4909,7 +5041,7 @@
       <c r="AM24" s="32"/>
       <c r="AN24" s="31">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>80.869565217391298</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
@@ -4969,8 +5101,12 @@
       <c r="T25" s="54">
         <v>-1</v>
       </c>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
+      <c r="U25" s="29">
+        <v>1</v>
+      </c>
+      <c r="V25" s="54">
+        <v>1</v>
+      </c>
       <c r="W25" s="54"/>
       <c r="X25" s="54"/>
       <c r="Y25" s="54"/>
@@ -5001,7 +5137,7 @@
       <c r="AM25" s="32"/>
       <c r="AN25" s="31">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>38.260869565217391</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
@@ -5063,8 +5199,12 @@
       <c r="T26" s="54">
         <v>-1</v>
       </c>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
+      <c r="U26" s="29">
+        <v>1</v>
+      </c>
+      <c r="V26" s="54">
+        <v>1</v>
+      </c>
       <c r="W26" s="54"/>
       <c r="X26" s="54"/>
       <c r="Y26" s="54"/>
@@ -5095,7 +5235,7 @@
       <c r="AM26" s="32"/>
       <c r="AN26" s="31">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>55.217391304347828</v>
       </c>
     </row>
     <row r="27" spans="1:62" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,8 +5297,12 @@
       <c r="T27" s="42">
         <v>1</v>
       </c>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
+      <c r="U27" s="29">
+        <v>1</v>
+      </c>
+      <c r="V27" s="42">
+        <v>1</v>
+      </c>
       <c r="W27" s="42"/>
       <c r="X27" s="42"/>
       <c r="Y27" s="42"/>
@@ -5180,7 +5324,9 @@
         <v>15</v>
       </c>
       <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
+      <c r="AG27" s="190">
+        <v>100</v>
+      </c>
       <c r="AH27" s="51"/>
       <c r="AI27" s="51"/>
       <c r="AJ27" s="51"/>
@@ -5189,7 +5335,7 @@
       <c r="AM27" s="51"/>
       <c r="AN27" s="31">
         <f t="shared" si="1"/>
-        <v>88.25</v>
+        <v>89.782608695652172</v>
       </c>
       <c r="AO27" s="53"/>
       <c r="AP27" s="53"/>
@@ -5336,8 +5482,14 @@
         <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="U29" s="18">
+        <f>U2</f>
+        <v>45771</v>
+      </c>
+      <c r="V29" s="18">
+        <f>V2</f>
+        <v>45775</v>
+      </c>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
@@ -5367,9 +5519,9 @@
         <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AH29" s="16">
+      <c r="AH29" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>ПР5. Telephony</v>
       </c>
       <c r="AI29" s="16">
         <f t="shared" si="3"/>
@@ -5455,8 +5607,12 @@
       <c r="T30" s="191">
         <v>1</v>
       </c>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
+      <c r="U30" s="200">
+        <v>1</v>
+      </c>
+      <c r="V30" s="200">
+        <v>1</v>
+      </c>
       <c r="W30" s="200"/>
       <c r="X30" s="200"/>
       <c r="Y30" s="200"/>
@@ -5485,7 +5641,7 @@
       <c r="AM30" s="34"/>
       <c r="AN30" s="31">
         <f>SUM(100*SUM(E30:AA30),AB30:AM30)/$AN$1</f>
-        <v>92.5</v>
+        <v>89.130434782608702</v>
       </c>
     </row>
     <row r="31" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -5545,8 +5701,12 @@
       <c r="T31" s="192">
         <v>-1</v>
       </c>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
+      <c r="U31" s="200">
+        <v>1</v>
+      </c>
+      <c r="V31" s="197" t="s">
+        <v>15</v>
+      </c>
       <c r="W31" s="197"/>
       <c r="X31" s="197"/>
       <c r="Y31" s="197"/>
@@ -5576,7 +5736,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="31">
         <f t="shared" ref="AN31:AN50" si="4">SUM(100*SUM(E31:AA31),AB31:AM31)/$AN$1</f>
-        <v>53</v>
+        <v>50.434782608695649</v>
       </c>
     </row>
     <row r="32" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -5638,8 +5798,12 @@
       <c r="T32" s="192">
         <v>-1</v>
       </c>
-      <c r="U32" s="197"/>
-      <c r="V32" s="197"/>
+      <c r="U32" s="200">
+        <v>1</v>
+      </c>
+      <c r="V32" s="197">
+        <v>1</v>
+      </c>
       <c r="W32" s="197"/>
       <c r="X32" s="197"/>
       <c r="Y32" s="197"/>
@@ -5655,8 +5819,9 @@
       <c r="AD32" s="38">
         <v>100</v>
       </c>
-      <c r="AE32" s="32">
-        <v>30</v>
+      <c r="AE32" s="203">
+        <f>30+70</f>
+        <v>100</v>
       </c>
       <c r="AF32" s="39"/>
       <c r="AG32" s="32"/>
@@ -5668,7 +5833,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="31">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>67.391304347826093</v>
       </c>
     </row>
     <row r="33" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -5730,8 +5895,12 @@
       <c r="T33" s="192">
         <v>1</v>
       </c>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
+      <c r="U33" s="200">
+        <v>1</v>
+      </c>
+      <c r="V33" s="197">
+        <v>1</v>
+      </c>
       <c r="W33" s="197"/>
       <c r="X33" s="197"/>
       <c r="Y33" s="197"/>
@@ -5759,7 +5928,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="31">
         <f t="shared" si="4"/>
-        <v>109.75</v>
+        <v>104.1304347826087</v>
       </c>
     </row>
     <row r="34" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -5821,8 +5990,12 @@
       <c r="T34" s="192">
         <v>-1</v>
       </c>
-      <c r="U34" s="197"/>
-      <c r="V34" s="197"/>
+      <c r="U34" s="200">
+        <v>1</v>
+      </c>
+      <c r="V34" s="197">
+        <v>1</v>
+      </c>
       <c r="W34" s="197"/>
       <c r="X34" s="197"/>
       <c r="Y34" s="197"/>
@@ -5852,7 +6025,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="31">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>91.304347826086953</v>
       </c>
     </row>
     <row r="35" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -5912,8 +6085,12 @@
       <c r="T35" s="192">
         <v>-1</v>
       </c>
-      <c r="U35" s="197"/>
-      <c r="V35" s="197"/>
+      <c r="U35" s="200">
+        <v>1</v>
+      </c>
+      <c r="V35" s="197">
+        <v>1</v>
+      </c>
       <c r="W35" s="197"/>
       <c r="X35" s="197"/>
       <c r="Y35" s="197"/>
@@ -5942,7 +6119,7 @@
       <c r="AM35" s="52"/>
       <c r="AN35" s="31">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>38.260869565217391</v>
       </c>
     </row>
     <row r="36" spans="1:62" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6004,8 +6181,12 @@
       <c r="T36" s="193">
         <v>1</v>
       </c>
-      <c r="U36" s="198"/>
-      <c r="V36" s="198"/>
+      <c r="U36" s="200">
+        <v>1</v>
+      </c>
+      <c r="V36" s="198">
+        <v>1</v>
+      </c>
       <c r="W36" s="198"/>
       <c r="X36" s="198"/>
       <c r="Y36" s="198"/>
@@ -6034,7 +6215,7 @@
       <c r="AM36" s="52"/>
       <c r="AN36" s="31">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104.34782608695652</v>
       </c>
       <c r="AO36" s="53"/>
       <c r="AP36" s="53"/>
@@ -6118,8 +6299,12 @@
       <c r="T37" s="193">
         <v>1</v>
       </c>
-      <c r="U37" s="198"/>
-      <c r="V37" s="198"/>
+      <c r="U37" s="200">
+        <v>1</v>
+      </c>
+      <c r="V37" s="198">
+        <v>1</v>
+      </c>
       <c r="W37" s="198"/>
       <c r="X37" s="198"/>
       <c r="Y37" s="198"/>
@@ -6149,7 +6334,7 @@
       <c r="AM37" s="52"/>
       <c r="AN37" s="31">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6211,8 +6396,12 @@
       <c r="T38" s="192">
         <v>1</v>
       </c>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
+      <c r="U38" s="200">
+        <v>1</v>
+      </c>
+      <c r="V38" s="197">
+        <v>1</v>
+      </c>
       <c r="W38" s="197"/>
       <c r="X38" s="197"/>
       <c r="Y38" s="197"/>
@@ -6228,9 +6417,9 @@
       <c r="AD38" s="38">
         <v>100</v>
       </c>
-      <c r="AE38" s="32">
-        <f>-50 + 50</f>
-        <v>0</v>
+      <c r="AE38" s="203">
+        <f>-50 + 50 + 50</f>
+        <v>50</v>
       </c>
       <c r="AF38" s="39"/>
       <c r="AG38" s="32"/>
@@ -6242,7 +6431,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="31">
         <f t="shared" si="4"/>
-        <v>84.5</v>
+        <v>84.347826086956516</v>
       </c>
     </row>
     <row r="39" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6304,8 +6493,12 @@
       <c r="T39" s="192">
         <v>1</v>
       </c>
-      <c r="U39" s="197"/>
-      <c r="V39" s="197"/>
+      <c r="U39" s="200">
+        <v>1</v>
+      </c>
+      <c r="V39" s="197">
+        <v>1</v>
+      </c>
       <c r="W39" s="197"/>
       <c r="X39" s="197"/>
       <c r="Y39" s="197"/>
@@ -6334,7 +6527,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="31">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104.34782608695652</v>
       </c>
     </row>
     <row r="40" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6396,8 +6589,12 @@
       <c r="T40" s="192">
         <v>1</v>
       </c>
-      <c r="U40" s="197"/>
-      <c r="V40" s="197"/>
+      <c r="U40" s="200">
+        <v>1</v>
+      </c>
+      <c r="V40" s="197">
+        <v>1</v>
+      </c>
       <c r="W40" s="197"/>
       <c r="X40" s="197"/>
       <c r="Y40" s="197"/>
@@ -6425,7 +6622,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="31">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104.34782608695652</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6487,8 +6684,12 @@
       <c r="T41" s="192">
         <v>1</v>
       </c>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
+      <c r="U41" s="200">
+        <v>1</v>
+      </c>
+      <c r="V41" s="197">
+        <v>1</v>
+      </c>
       <c r="W41" s="197"/>
       <c r="X41" s="197"/>
       <c r="Y41" s="197"/>
@@ -6517,7 +6718,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="31">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>102.60869565217391</v>
       </c>
     </row>
     <row r="42" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6579,8 +6780,12 @@
       <c r="T42" s="193">
         <v>1</v>
       </c>
-      <c r="U42" s="198"/>
-      <c r="V42" s="198"/>
+      <c r="U42" s="200">
+        <v>1</v>
+      </c>
+      <c r="V42" s="198">
+        <v>1</v>
+      </c>
       <c r="W42" s="198"/>
       <c r="X42" s="198"/>
       <c r="Y42" s="198"/>
@@ -6610,7 +6815,7 @@
       <c r="AM42" s="52"/>
       <c r="AN42" s="31">
         <f t="shared" si="4"/>
-        <v>90.5</v>
+        <v>87.391304347826093</v>
       </c>
     </row>
     <row r="43" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6672,8 +6877,12 @@
       <c r="T43" s="192">
         <v>1</v>
       </c>
-      <c r="U43" s="197"/>
-      <c r="V43" s="197"/>
+      <c r="U43" s="200">
+        <v>1</v>
+      </c>
+      <c r="V43" s="197">
+        <v>1</v>
+      </c>
       <c r="W43" s="197"/>
       <c r="X43" s="197"/>
       <c r="Y43" s="197"/>
@@ -6704,7 +6913,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="31">
         <f t="shared" si="4"/>
-        <v>69.5</v>
+        <v>69.130434782608702</v>
       </c>
     </row>
     <row r="44" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6714,7 +6923,7 @@
       <c r="B44" s="25">
         <v>0</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="188" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="28">
@@ -6765,8 +6974,12 @@
       <c r="T44" s="192">
         <v>-1</v>
       </c>
-      <c r="U44" s="197"/>
-      <c r="V44" s="197"/>
+      <c r="U44" s="200">
+        <v>1</v>
+      </c>
+      <c r="V44" s="197">
+        <v>1</v>
+      </c>
       <c r="W44" s="197"/>
       <c r="X44" s="197"/>
       <c r="Y44" s="197"/>
@@ -6796,7 +7009,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="31">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>53.043478260869563</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6858,8 +7071,12 @@
       <c r="T45" s="193">
         <v>1</v>
       </c>
-      <c r="U45" s="198"/>
-      <c r="V45" s="198"/>
+      <c r="U45" s="200">
+        <v>1</v>
+      </c>
+      <c r="V45" s="198">
+        <v>1</v>
+      </c>
       <c r="W45" s="198"/>
       <c r="X45" s="198"/>
       <c r="Y45" s="198"/>
@@ -6889,7 +7106,7 @@
       <c r="AM45" s="52"/>
       <c r="AN45" s="31">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>93.913043478260875</v>
       </c>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
@@ -6951,8 +7168,12 @@
       <c r="T46" s="192">
         <v>-1</v>
       </c>
-      <c r="U46" s="197"/>
-      <c r="V46" s="197"/>
+      <c r="U46" s="200">
+        <v>1</v>
+      </c>
+      <c r="V46" s="197">
+        <v>1</v>
+      </c>
       <c r="W46" s="197"/>
       <c r="X46" s="197"/>
       <c r="Y46" s="197"/>
@@ -6972,7 +7193,9 @@
         <v>50</v>
       </c>
       <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
+      <c r="AG46" s="203">
+        <v>100</v>
+      </c>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
       <c r="AJ46" s="32"/>
@@ -6981,7 +7204,7 @@
       <c r="AM46" s="32"/>
       <c r="AN46" s="31">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
@@ -7043,8 +7266,12 @@
       <c r="T47" s="194">
         <v>1</v>
       </c>
-      <c r="U47" s="199"/>
-      <c r="V47" s="199"/>
+      <c r="U47" s="200">
+        <v>1</v>
+      </c>
+      <c r="V47" s="199">
+        <v>1</v>
+      </c>
       <c r="W47" s="199"/>
       <c r="X47" s="199"/>
       <c r="Y47" s="199"/>
@@ -7075,7 +7302,7 @@
       <c r="AM47" s="32"/>
       <c r="AN47" s="31">
         <f t="shared" si="4"/>
-        <v>89.5</v>
+        <v>86.521739130434781</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
@@ -7086,7 +7313,9 @@
         <v>1</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="44"/>
+      <c r="D48" s="44" t="s">
+        <v>219</v>
+      </c>
       <c r="E48" s="28">
         <v>1</v>
       </c>
@@ -7135,8 +7364,12 @@
       <c r="T48" s="194">
         <v>1</v>
       </c>
-      <c r="U48" s="199"/>
-      <c r="V48" s="199"/>
+      <c r="U48" s="200">
+        <v>1</v>
+      </c>
+      <c r="V48" s="199">
+        <v>1</v>
+      </c>
       <c r="W48" s="199"/>
       <c r="X48" s="199"/>
       <c r="Y48" s="199"/>
@@ -7152,9 +7385,9 @@
       <c r="AD48" s="38">
         <v>100</v>
       </c>
-      <c r="AE48" s="32">
-        <f>50 + 10 + 20</f>
-        <v>80</v>
+      <c r="AE48" s="203">
+        <f>50 + 10 + 20+20</f>
+        <v>100</v>
       </c>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
@@ -7166,7 +7399,7 @@
       <c r="AM48" s="32"/>
       <c r="AN48" s="31">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
@@ -7228,8 +7461,12 @@
       <c r="T49" s="194">
         <v>1</v>
       </c>
-      <c r="U49" s="199"/>
-      <c r="V49" s="199"/>
+      <c r="U49" s="200">
+        <v>1</v>
+      </c>
+      <c r="V49" s="199">
+        <v>1</v>
+      </c>
       <c r="W49" s="199"/>
       <c r="X49" s="199"/>
       <c r="Y49" s="199"/>
@@ -7259,18 +7496,18 @@
       <c r="AM49" s="32"/>
       <c r="AN49" s="31">
         <f t="shared" si="4"/>
-        <v>89.5</v>
+        <v>86.521739130434781</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="204" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="25">
         <v>1</v>
       </c>
       <c r="C50" s="26"/>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="188" t="s">
         <v>92</v>
       </c>
       <c r="E50" s="28">
@@ -7321,8 +7558,12 @@
       <c r="T50" s="194">
         <v>1</v>
       </c>
-      <c r="U50" s="199"/>
-      <c r="V50" s="199"/>
+      <c r="U50" s="200">
+        <v>1</v>
+      </c>
+      <c r="V50" s="199">
+        <v>1</v>
+      </c>
       <c r="W50" s="199"/>
       <c r="X50" s="199"/>
       <c r="Y50" s="199"/>
@@ -7343,9 +7584,15 @@
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
+      <c r="AF50" s="203">
+        <v>100</v>
+      </c>
+      <c r="AG50" s="203">
+        <v>100</v>
+      </c>
+      <c r="AH50" s="32">
+        <v>40</v>
+      </c>
       <c r="AI50" s="32"/>
       <c r="AJ50" s="32"/>
       <c r="AK50" s="32"/>
@@ -7353,7 +7600,7 @@
       <c r="AM50" s="32"/>
       <c r="AN50" s="31">
         <f t="shared" si="4"/>
-        <v>75.5</v>
+        <v>84.782608695652172</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
@@ -7415,8 +7662,12 @@
       <c r="T51" s="192">
         <v>-1</v>
       </c>
-      <c r="U51" s="197"/>
-      <c r="V51" s="197"/>
+      <c r="U51" s="200">
+        <v>1</v>
+      </c>
+      <c r="V51" s="197">
+        <v>1</v>
+      </c>
       <c r="W51" s="197"/>
       <c r="X51" s="197"/>
       <c r="Y51" s="197"/>
@@ -7446,7 +7697,7 @@
       <c r="AM51" s="32"/>
       <c r="AN51" s="31">
         <f>SUM(100*SUM(E51:T51),AB51:AM51)/$AN$1</f>
-        <v>94</v>
+        <v>81.739130434782609</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
@@ -7511,10 +7762,12 @@
     <hyperlink ref="D36" r:id="rId13" xr:uid="{6411E2E6-ED66-41C8-A73D-E16DE920C708}"/>
     <hyperlink ref="D4" r:id="rId14" xr:uid="{AEDE007F-750F-45B1-B907-B9732B9E0738}"/>
     <hyperlink ref="D43" r:id="rId15" xr:uid="{7544E508-6DF0-4909-B318-3645EA5D3E7D}"/>
+    <hyperlink ref="D50" r:id="rId16" xr:uid="{C0273E47-DF4E-4D6F-B46C-35A77B598E86}"/>
+    <hyperlink ref="D44" r:id="rId17" xr:uid="{53B614C6-BC83-44D3-9FA6-533CE0ED71BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CC298-86FD-4EC9-B3E5-98E2D4F546F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF3BF8-E081-4DB8-A3C6-39DB1A4C1D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2653,7 +2653,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
+      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,7 +4345,9 @@
         <v>70</v>
       </c>
       <c r="AF17" s="39"/>
-      <c r="AG17" s="32"/>
+      <c r="AG17" s="203">
+        <v>100</v>
+      </c>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
       <c r="AJ17" s="32"/>
@@ -4354,7 +4356,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="31">
         <f t="shared" si="1"/>
-        <v>79.130434782608702</v>
+        <v>83.478260869565219</v>
       </c>
     </row>
     <row r="18" spans="1:62" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4442,7 +4444,9 @@
         <v>-50</v>
       </c>
       <c r="AF18" s="50"/>
-      <c r="AG18" s="51"/>
+      <c r="AG18" s="190">
+        <v>100</v>
+      </c>
       <c r="AH18" s="51"/>
       <c r="AI18" s="51"/>
       <c r="AJ18" s="51"/>
@@ -4451,7 +4455,7 @@
       <c r="AM18" s="52"/>
       <c r="AN18" s="31">
         <f t="shared" si="1"/>
-        <v>79.565217391304344</v>
+        <v>83.913043478260875</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F320336B-BA30-45F2-8969-76173CA34A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185F7BF-B621-4485-85E4-F84D09D1B125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="2790" windowWidth="28770" windowHeight="15450" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId1"/>
@@ -2868,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH29" sqref="AH29"/>
     </sheetView>
@@ -3320,7 +3320,7 @@
       <c r="AL4" s="102"/>
       <c r="AM4" s="102"/>
       <c r="AN4" s="34">
-        <f t="shared" ref="AN3:AN27" si="1">SUM(100*SUM(E4:AA4),AB4:AM4)/$AN$1</f>
+        <f t="shared" ref="AN4:AN27" si="1">SUM(100*SUM(E4:AA4),AB4:AM4)/$AN$1</f>
         <v>71.15384615384616</v>
       </c>
     </row>
@@ -8214,9 +8214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE6" sqref="AE6"/>
+      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,15 +9334,19 @@
       <c r="W18" s="216">
         <v>100</v>
       </c>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="218"/>
+      <c r="X18" s="217">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="218">
+        <v>60</v>
+      </c>
       <c r="Z18" s="219"/>
       <c r="AA18" s="219"/>
       <c r="AB18" s="219"/>
       <c r="AC18" s="219"/>
       <c r="AD18" s="219"/>
       <c r="AE18" s="219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="219"/>
     </row>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE52FDD-518A-47B0-86C9-AD80F1D3C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69DF5A-6D79-4BE7-A6E1-38B22C8E1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2835" windowWidth="30705" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId1"/>
@@ -2919,8 +2919,8 @@
   <dimension ref="A1:BJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y22" sqref="Y22"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,13 +5815,15 @@
       </c>
       <c r="AH27" s="114"/>
       <c r="AI27" s="114"/>
-      <c r="AJ27" s="114"/>
+      <c r="AJ27" s="286">
+        <v>100</v>
+      </c>
       <c r="AK27" s="114"/>
       <c r="AL27" s="114"/>
       <c r="AM27" s="114"/>
       <c r="AN27" s="33">
         <f t="shared" si="1"/>
-        <v>92.5</v>
+        <v>96.34615384615384</v>
       </c>
       <c r="AO27" s="48"/>
       <c r="AP27" s="48"/>
@@ -7855,21 +7857,23 @@
         <f>-50 + 130</f>
         <v>80</v>
       </c>
-      <c r="AF46" s="236">
+      <c r="AF46" s="186">
         <v>-100</v>
       </c>
-      <c r="AG46" s="236">
+      <c r="AG46" s="186">
         <v>-100</v>
       </c>
       <c r="AH46" s="99"/>
       <c r="AI46" s="99"/>
-      <c r="AJ46" s="99"/>
+      <c r="AJ46" s="186">
+        <v>100</v>
+      </c>
       <c r="AK46" s="99"/>
       <c r="AL46" s="99"/>
       <c r="AM46" s="99"/>
       <c r="AN46" s="33">
         <f t="shared" si="4"/>
-        <v>76.538461538461533</v>
+        <v>80.384615384615387</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
@@ -7963,7 +7967,7 @@
       <c r="AF47" s="236">
         <v>-100</v>
       </c>
-      <c r="AG47" s="236">
+      <c r="AG47" s="186">
         <v>-100</v>
       </c>
       <c r="AH47" s="99"/>
@@ -8380,9 +8384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
+      <selection pane="topRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69DF5A-6D79-4BE7-A6E1-38B22C8E1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD3923-B647-4436-96AF-282F0C2A4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1296,9 +1296,6 @@
     <t>РГР</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</t>
   </si>
   <si>
@@ -1474,7 +1471,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,6 +1668,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1951,7 +1954,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,6 +2522,7 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2919,8 +2923,8 @@
   <dimension ref="A1:BJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH27" sqref="AH27"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3177,7 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="23"/>
       <c r="AN2" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3491,7 +3495,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="297" t="s">
+      <c r="A6" s="301" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="25">
@@ -3576,7 +3580,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AE6" s="233">
+      <c r="AE6" s="178">
         <v>-100</v>
       </c>
       <c r="AF6" s="294">
@@ -3797,13 +3801,15 @@
         <v>300</v>
       </c>
       <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
+      <c r="AJ8" s="286">
+        <v>100</v>
+      </c>
       <c r="AK8" s="114"/>
       <c r="AL8" s="114"/>
       <c r="AM8" s="114"/>
       <c r="AN8" s="33">
         <f t="shared" si="1"/>
-        <v>119.23076923076923</v>
+        <v>123.07692307692308</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -4096,7 +4102,7 @@
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="287">
         <f>-50-50</f>
         <v>-100</v>
       </c>
@@ -4116,13 +4122,15 @@
       </c>
       <c r="AH11" s="99"/>
       <c r="AI11" s="99"/>
-      <c r="AJ11" s="99"/>
+      <c r="AJ11" s="186">
+        <v>100</v>
+      </c>
       <c r="AK11" s="99"/>
       <c r="AL11" s="99"/>
       <c r="AM11" s="99"/>
       <c r="AN11" s="33">
         <f t="shared" si="1"/>
-        <v>91.15384615384616</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -5698,7 +5706,7 @@
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="AE26" s="233">
+      <c r="AE26" s="178">
         <v>-100</v>
       </c>
       <c r="AF26" s="186">
@@ -5709,13 +5717,15 @@
       </c>
       <c r="AH26" s="99"/>
       <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
+      <c r="AJ26" s="186">
+        <v>80</v>
+      </c>
       <c r="AK26" s="99"/>
       <c r="AL26" s="99"/>
       <c r="AM26" s="99"/>
       <c r="AN26" s="33">
         <f t="shared" si="1"/>
-        <v>53.07692307692308</v>
+        <v>56.153846153846153</v>
       </c>
     </row>
     <row r="27" spans="1:62" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -6356,13 +6366,15 @@
       </c>
       <c r="AH32" s="99"/>
       <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
+      <c r="AJ32" s="186">
+        <v>100</v>
+      </c>
       <c r="AK32" s="99"/>
       <c r="AL32" s="99"/>
       <c r="AM32" s="99"/>
       <c r="AN32" s="33">
         <f t="shared" si="4"/>
-        <v>73.461538461538467</v>
+        <v>77.307692307692307</v>
       </c>
     </row>
     <row r="33" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6460,13 +6472,15 @@
       </c>
       <c r="AH33" s="99"/>
       <c r="AI33" s="99"/>
-      <c r="AJ33" s="99"/>
+      <c r="AJ33" s="99">
+        <v>100</v>
+      </c>
       <c r="AK33" s="99"/>
       <c r="AL33" s="99"/>
       <c r="AM33" s="99"/>
       <c r="AN33" s="33">
         <f t="shared" si="4"/>
-        <v>106.73076923076923</v>
+        <v>110.57692307692308</v>
       </c>
     </row>
     <row r="34" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -6584,7 +6598,7 @@
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="28">
         <v>1</v>
@@ -6652,7 +6666,7 @@
       <c r="AB35" s="37">
         <v>80</v>
       </c>
-      <c r="AC35" s="41">
+      <c r="AC35" s="288">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
@@ -6776,15 +6790,15 @@
       </c>
       <c r="AH36" s="114"/>
       <c r="AI36" s="114"/>
-      <c r="AJ36" s="114" t="s">
-        <v>221</v>
+      <c r="AJ36" s="286">
+        <v>100</v>
       </c>
       <c r="AK36" s="114"/>
       <c r="AL36" s="114"/>
       <c r="AM36" s="114"/>
       <c r="AN36" s="33">
         <f t="shared" si="4"/>
-        <v>106.92307692307692</v>
+        <v>110.76923076923077</v>
       </c>
       <c r="AO36" s="48"/>
       <c r="AP36" s="48"/>
@@ -7009,18 +7023,20 @@
       <c r="AF38" s="185">
         <v>70</v>
       </c>
-      <c r="AG38" s="236">
+      <c r="AG38" s="186">
         <v>-100</v>
       </c>
       <c r="AH38" s="99"/>
       <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
+      <c r="AJ38" s="186">
+        <v>50</v>
+      </c>
       <c r="AK38" s="99"/>
       <c r="AL38" s="99"/>
       <c r="AM38" s="99"/>
       <c r="AN38" s="33">
         <f t="shared" si="4"/>
-        <v>81.15384615384616</v>
+        <v>83.07692307692308</v>
       </c>
     </row>
     <row r="39" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -7438,13 +7454,15 @@
       </c>
       <c r="AH42" s="114"/>
       <c r="AI42" s="114"/>
-      <c r="AJ42" s="114"/>
+      <c r="AJ42" s="286">
+        <v>100</v>
+      </c>
       <c r="AK42" s="114"/>
       <c r="AL42" s="114"/>
       <c r="AM42" s="114"/>
       <c r="AN42" s="33">
         <f t="shared" si="4"/>
-        <v>91.15384615384616</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -7525,7 +7543,7 @@
         <f>-40 - 20 + 100</f>
         <v>40</v>
       </c>
-      <c r="AC43" s="41">
+      <c r="AC43" s="288">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
@@ -7536,7 +7554,7 @@
         <f>-50 + 20 - 20+50</f>
         <v>0</v>
       </c>
-      <c r="AF43" s="294">
+      <c r="AF43" s="185">
         <v>-100</v>
       </c>
       <c r="AG43" s="186">
@@ -7964,7 +7982,7 @@
         <f>50 + 10 + 20+20</f>
         <v>100</v>
       </c>
-      <c r="AF47" s="236">
+      <c r="AF47" s="186">
         <v>-100</v>
       </c>
       <c r="AG47" s="186">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD3923-B647-4436-96AF-282F0C2A4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68107FAA-40EC-47E1-B822-CA532AFA05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2923,8 +2923,8 @@
   <dimension ref="A1:BJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD36" sqref="AD36"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4857,7 @@
         <f>-50+60</f>
         <v>10</v>
       </c>
-      <c r="AF18" s="294">
+      <c r="AF18" s="185">
         <v>-100</v>
       </c>
       <c r="AG18" s="80">
@@ -4865,13 +4865,15 @@
       </c>
       <c r="AH18" s="114"/>
       <c r="AI18" s="114"/>
-      <c r="AJ18" s="114"/>
+      <c r="AJ18" s="286">
+        <v>50</v>
+      </c>
       <c r="AK18" s="114"/>
       <c r="AL18" s="114"/>
       <c r="AM18" s="114"/>
       <c r="AN18" s="33">
         <f t="shared" si="1"/>
-        <v>72.692307692307693</v>
+        <v>74.615384615384613</v>
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
@@ -6472,7 +6474,7 @@
       </c>
       <c r="AH33" s="99"/>
       <c r="AI33" s="99"/>
-      <c r="AJ33" s="99">
+      <c r="AJ33" s="186">
         <v>100</v>
       </c>
       <c r="AK33" s="99"/>
@@ -7562,13 +7564,15 @@
       </c>
       <c r="AH43" s="114"/>
       <c r="AI43" s="114"/>
-      <c r="AJ43" s="114"/>
+      <c r="AJ43" s="286">
+        <v>100</v>
+      </c>
       <c r="AK43" s="99"/>
       <c r="AL43" s="99"/>
       <c r="AM43" s="99"/>
       <c r="AN43" s="33">
         <f t="shared" si="4"/>
-        <v>69.615384615384613</v>
+        <v>73.461538461538467</v>
       </c>
     </row>
     <row r="44" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
@@ -7990,13 +7994,15 @@
       </c>
       <c r="AH47" s="99"/>
       <c r="AI47" s="99"/>
-      <c r="AJ47" s="99"/>
+      <c r="AJ47" s="186">
+        <v>1</v>
+      </c>
       <c r="AK47" s="99"/>
       <c r="AL47" s="99"/>
       <c r="AM47" s="99"/>
       <c r="AN47" s="33">
         <f t="shared" si="4"/>
-        <v>76.92307692307692</v>
+        <v>76.961538461538467</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68107FAA-40EC-47E1-B822-CA532AFA05A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1A4E0-50ED-4408-98F9-F50515941DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46230" yWindow="2145" windowWidth="28770" windowHeight="14280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId1"/>
@@ -1471,7 +1471,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,14 +1666,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1954,7 +1960,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2523,6 +2529,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2922,9 +2929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH22" sqref="AH22"/>
+      <selection pane="topRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3502,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="301" t="s">
+      <c r="A6" s="300" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="25">
@@ -3601,7 +3608,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="297" t="s">
+      <c r="A7" s="301" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="25">
@@ -3919,7 +3926,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="297" t="s">
+      <c r="A10" s="301" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="25">
@@ -4134,7 +4141,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="297" t="s">
+      <c r="A12" s="301" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="25">
@@ -4345,7 +4352,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="297" t="s">
+      <c r="A14" s="301" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="25">
@@ -4449,7 +4456,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="301" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="25">
@@ -4555,7 +4562,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="297" t="s">
+      <c r="A16" s="301" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="25">
@@ -4877,7 +4884,7 @@
       </c>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="301" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="25">
@@ -5091,7 +5098,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="297" t="s">
+      <c r="A21" s="301" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="25">
@@ -5411,7 +5418,7 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A24" s="297" t="s">
+      <c r="A24" s="301" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="25">
@@ -5519,7 +5526,7 @@
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="297" t="s">
+      <c r="A25" s="301" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="25">
@@ -8006,7 +8013,7 @@
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A48" s="300" t="s">
+      <c r="A48" s="302" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="25">
